--- a/Resources/2002/Master_2002.xlsx
+++ b/Resources/2002/Master_2002.xlsx
@@ -3717,10 +3717,10 @@
         <v>7.324364723467862</v>
       </c>
       <c r="BN2">
-        <v>27.07182320441989</v>
+        <v>0</v>
       </c>
       <c r="BO2">
-        <v>79.03225806451614</v>
+        <v>-0.8064516129032258</v>
       </c>
     </row>
     <row r="3" spans="1:67">
@@ -3920,10 +3920,10 @@
         <v>14.7982062780269</v>
       </c>
       <c r="BN3">
-        <v>54.69613259668508</v>
+        <v>19.88950276243094</v>
       </c>
       <c r="BO3">
-        <v>159.6774193548387</v>
+        <v>24.19354838709677</v>
       </c>
     </row>
     <row r="4" spans="1:67">
@@ -4123,10 +4123,10 @@
         <v>10.1644245142003</v>
       </c>
       <c r="BN4">
-        <v>37.56906077348066</v>
+        <v>6.077348066298343</v>
       </c>
       <c r="BO4">
-        <v>109.6774193548387</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:67">
@@ -4326,10 +4326,10 @@
         <v>6.87593423019432</v>
       </c>
       <c r="BN5">
-        <v>25.41436464088397</v>
+        <v>-0.2762430939226519</v>
       </c>
       <c r="BO5">
-        <v>74.19354838709677</v>
+        <v>-1.612903225806452</v>
       </c>
     </row>
     <row r="6" spans="1:67">
@@ -4529,10 +4529,10 @@
         <v>11.21076233183856</v>
       </c>
       <c r="BN6">
-        <v>41.43646408839778</v>
+        <v>1.38121546961326</v>
       </c>
       <c r="BO6">
-        <v>120.9677419354839</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:67">
@@ -4732,10 +4732,10 @@
         <v>16.14349775784753</v>
       </c>
       <c r="BN7">
-        <v>59.66850828729282</v>
+        <v>24.58563535911602</v>
       </c>
       <c r="BO7">
-        <v>174.1935483870968</v>
+        <v>32.25806451612903</v>
       </c>
     </row>
     <row r="8" spans="1:67">
@@ -4935,10 +4935,10 @@
         <v>10.38863976083707</v>
       </c>
       <c r="BN8">
-        <v>38.39779005524861</v>
+        <v>1.933701657458563</v>
       </c>
       <c r="BO8">
-        <v>112.0967741935484</v>
+        <v>-1.612903225806452</v>
       </c>
     </row>
     <row r="9" spans="1:67">
@@ -5135,10 +5135,10 @@
         <v>4.035874439461884</v>
       </c>
       <c r="BN9">
-        <v>14.91712707182321</v>
+        <v>-1.933701657458563</v>
       </c>
       <c r="BO9">
-        <v>43.54838709677419</v>
+        <v>-7.258064516129033</v>
       </c>
     </row>
     <row r="10" spans="1:67">
@@ -5338,10 +5338,10 @@
         <v>10.31390134529148</v>
       </c>
       <c r="BN10">
-        <v>38.12154696132596</v>
+        <v>0.8287292817679558</v>
       </c>
       <c r="BO10">
-        <v>111.2903225806452</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:67">
@@ -5541,10 +5541,10 @@
         <v>11.58445440956652</v>
       </c>
       <c r="BN11">
-        <v>42.81767955801104</v>
+        <v>14.64088397790055</v>
       </c>
       <c r="BO11">
-        <v>125</v>
+        <v>10.48387096774194</v>
       </c>
     </row>
     <row r="12" spans="1:67">
@@ -5744,10 +5744,10 @@
         <v>10.1644245142003</v>
       </c>
       <c r="BN12">
-        <v>37.56906077348066</v>
+        <v>14.3646408839779</v>
       </c>
       <c r="BO12">
-        <v>109.6774193548387</v>
+        <v>8.064516129032258</v>
       </c>
     </row>
     <row r="13" spans="1:67">
@@ -5947,10 +5947,10 @@
         <v>3.662182361733931</v>
       </c>
       <c r="BN13">
-        <v>13.53591160220994</v>
+        <v>-1.104972375690608</v>
       </c>
       <c r="BO13">
-        <v>39.51612903225807</v>
+        <v>-2.419354838709677</v>
       </c>
     </row>
     <row r="14" spans="1:67">
@@ -6150,10 +6150,10 @@
         <v>5.979073243647234</v>
       </c>
       <c r="BN14">
-        <v>22.09944751381216</v>
+        <v>1.104972375690608</v>
       </c>
       <c r="BO14">
-        <v>64.51612903225806</v>
+        <v>-2.419354838709677</v>
       </c>
     </row>
     <row r="15" spans="1:67">
@@ -6353,10 +6353,10 @@
         <v>9.417040358744394</v>
       </c>
       <c r="BN15">
-        <v>34.80662983425414</v>
+        <v>3.038674033149171</v>
       </c>
       <c r="BO15">
-        <v>101.6129032258064</v>
+        <v>-2.419354838709677</v>
       </c>
     </row>
     <row r="16" spans="1:67">
@@ -6556,10 +6556,10 @@
         <v>12.70553064275037</v>
       </c>
       <c r="BN16">
-        <v>46.96132596685082</v>
+        <v>7.458563535911603</v>
       </c>
       <c r="BO16">
-        <v>137.0967741935484</v>
+        <v>7.258064516129033</v>
       </c>
     </row>
     <row r="17" spans="1:67">
@@ -6759,10 +6759,10 @@
         <v>2.840059790732436</v>
       </c>
       <c r="BN17">
-        <v>10.49723756906077</v>
+        <v>-0.5524861878453038</v>
       </c>
       <c r="BO17">
-        <v>30.64516129032258</v>
+        <v>-2.419354838709677</v>
       </c>
     </row>
     <row r="18" spans="1:67">
@@ -6962,10 +6962,10 @@
         <v>12.4813153961136</v>
       </c>
       <c r="BN18">
-        <v>46.13259668508287</v>
+        <v>20.99447513812154</v>
       </c>
       <c r="BO18">
-        <v>134.6774193548387</v>
+        <v>27.41935483870968</v>
       </c>
     </row>
     <row r="19" spans="1:67">
@@ -7165,10 +7165,10 @@
         <v>9.267563527653214</v>
       </c>
       <c r="BN19">
-        <v>34.25414364640883</v>
+        <v>1.104972375690608</v>
       </c>
       <c r="BO19">
-        <v>100</v>
+        <v>-2.419354838709677</v>
       </c>
     </row>
     <row r="20" spans="1:67">
@@ -7368,10 +7368,10 @@
         <v>10.83707025411061</v>
       </c>
       <c r="BN20">
-        <v>40.05524861878452</v>
+        <v>14.08839779005525</v>
       </c>
       <c r="BO20">
-        <v>116.9354838709677</v>
+        <v>8.870967741935484</v>
       </c>
     </row>
     <row r="21" spans="1:67">
@@ -7571,10 +7571,10 @@
         <v>8.594917787742899</v>
       </c>
       <c r="BN21">
-        <v>31.76795580110497</v>
+        <v>6.353591160220994</v>
       </c>
       <c r="BO21">
-        <v>92.74193548387096</v>
+        <v>1.612903225806452</v>
       </c>
     </row>
     <row r="22" spans="1:67">
@@ -7774,10 +7774,10 @@
         <v>5.829596412556053</v>
       </c>
       <c r="BN22">
-        <v>21.54696132596685</v>
+        <v>0</v>
       </c>
       <c r="BO22">
-        <v>62.90322580645162</v>
+        <v>-3.225806451612903</v>
       </c>
     </row>
     <row r="23" spans="1:67">
@@ -7977,10 +7977,10 @@
         <v>4.035874439461884</v>
       </c>
       <c r="BN23">
-        <v>14.91712707182321</v>
+        <v>-1.104972375690608</v>
       </c>
       <c r="BO23">
-        <v>43.54838709677419</v>
+        <v>-3.225806451612903</v>
       </c>
     </row>
     <row r="24" spans="1:67">
@@ -8180,10 +8180,10 @@
         <v>6.427503736920777</v>
       </c>
       <c r="BN24">
-        <v>23.75690607734806</v>
+        <v>-0.2762430939226519</v>
       </c>
       <c r="BO24">
-        <v>69.35483870967741</v>
+        <v>-5.64516129032258</v>
       </c>
     </row>
     <row r="25" spans="1:67">
@@ -8383,10 +8383,10 @@
         <v>10.53811659192825</v>
       </c>
       <c r="BN25">
-        <v>38.95027624309392</v>
+        <v>6.077348066298343</v>
       </c>
       <c r="BO25">
-        <v>113.7096774193548</v>
+        <v>-3.225806451612903</v>
       </c>
     </row>
     <row r="26" spans="1:67">
@@ -8586,10 +8586,10 @@
         <v>7.324364723467862</v>
       </c>
       <c r="BN26">
-        <v>27.07182320441989</v>
+        <v>0.5524861878453038</v>
       </c>
       <c r="BO26">
-        <v>79.03225806451614</v>
+        <v>-0.8064516129032258</v>
       </c>
     </row>
     <row r="27" spans="1:67">
@@ -8789,10 +8789,10 @@
         <v>7.847533632286995</v>
       </c>
       <c r="BN27">
-        <v>29.00552486187845</v>
+        <v>1.38121546961326</v>
       </c>
       <c r="BO27">
-        <v>84.67741935483872</v>
+        <v>-2.419354838709677</v>
       </c>
     </row>
     <row r="28" spans="1:67">
@@ -8992,10 +8992,10 @@
         <v>14.42451420029895</v>
       </c>
       <c r="BN28">
-        <v>53.31491712707182</v>
+        <v>33.42541436464088</v>
       </c>
       <c r="BO28">
-        <v>155.6451612903226</v>
+        <v>48.38709677419354</v>
       </c>
     </row>
     <row r="29" spans="1:67">
@@ -9195,10 +9195,10 @@
         <v>13.22869955156951</v>
       </c>
       <c r="BN29">
-        <v>48.89502762430939</v>
+        <v>20.71823204419889</v>
       </c>
       <c r="BO29">
-        <v>142.7419354838709</v>
+        <v>20.96774193548387</v>
       </c>
     </row>
     <row r="30" spans="1:67">
@@ -9398,10 +9398,10 @@
         <v>5.979073243647234</v>
       </c>
       <c r="BN30">
-        <v>22.09944751381216</v>
+        <v>0.2762430939226519</v>
       </c>
       <c r="BO30">
-        <v>64.51612903225806</v>
+        <v>-2.419354838709677</v>
       </c>
     </row>
     <row r="31" spans="1:67">
@@ -9601,10 +9601,10 @@
         <v>10.83707025411061</v>
       </c>
       <c r="BN31">
-        <v>40.05524861878452</v>
+        <v>17.12707182320442</v>
       </c>
       <c r="BO31">
-        <v>116.9354838709677</v>
+        <v>8.064516129032258</v>
       </c>
     </row>
     <row r="32" spans="1:67">
@@ -9804,10 +9804,10 @@
         <v>10.38863976083707</v>
       </c>
       <c r="BN32">
-        <v>38.39779005524861</v>
+        <v>13.25966850828729</v>
       </c>
       <c r="BO32">
-        <v>112.0967741935484</v>
+        <v>24.19354838709677</v>
       </c>
     </row>
     <row r="33" spans="1:67">
@@ -10007,10 +10007,10 @@
         <v>-1.345291479820628</v>
       </c>
       <c r="BN33">
-        <v>-4.972375690607735</v>
+        <v>-0.5524861878453038</v>
       </c>
       <c r="BO33">
-        <v>-14.51612903225807</v>
+        <v>-0.8064516129032258</v>
       </c>
     </row>
     <row r="34" spans="1:67">
@@ -10210,10 +10210,10 @@
         <v>6.427503736920777</v>
       </c>
       <c r="BN34">
-        <v>23.75690607734806</v>
+        <v>3.038674033149171</v>
       </c>
       <c r="BO34">
-        <v>69.35483870967741</v>
+        <v>-3.225806451612903</v>
       </c>
     </row>
     <row r="35" spans="1:67">
@@ -10413,10 +10413,10 @@
         <v>7.922272047832585</v>
       </c>
       <c r="BN35">
-        <v>29.2817679558011</v>
+        <v>5.524861878453039</v>
       </c>
       <c r="BO35">
-        <v>85.48387096774192</v>
+        <v>-2.419354838709677</v>
       </c>
     </row>
     <row r="36" spans="1:67">
@@ -10616,10 +10616,10 @@
         <v>10.68759342301943</v>
       </c>
       <c r="BN36">
-        <v>39.50276243093923</v>
+        <v>9.392265193370166</v>
       </c>
       <c r="BO36">
-        <v>115.3225806451613</v>
+        <v>0.8064516129032258</v>
       </c>
     </row>
     <row r="37" spans="1:67">
@@ -10819,10 +10819,10 @@
         <v>11.13602391629297</v>
       </c>
       <c r="BN37">
-        <v>41.16022099447514</v>
+        <v>17.40331491712707</v>
       </c>
       <c r="BO37">
-        <v>120.1612903225807</v>
+        <v>8.870967741935484</v>
       </c>
     </row>
     <row r="38" spans="1:67">
@@ -11022,10 +11022,10 @@
         <v>13.15396113602392</v>
       </c>
       <c r="BN38">
-        <v>48.61878453038674</v>
+        <v>20.99447513812154</v>
       </c>
       <c r="BO38">
-        <v>141.9354838709677</v>
+        <v>16.93548387096774</v>
       </c>
     </row>
     <row r="39" spans="1:67">
@@ -11225,10 +11225,10 @@
         <v>6.87593423019432</v>
       </c>
       <c r="BN39">
-        <v>25.41436464088397</v>
+        <v>-0.2762430939226519</v>
       </c>
       <c r="BO39">
-        <v>74.19354838709677</v>
+        <v>-4.838709677419355</v>
       </c>
     </row>
     <row r="40" spans="1:67">
@@ -11428,10 +11428,10 @@
         <v>7.623318385650222</v>
       </c>
       <c r="BN40">
-        <v>28.17679558011049</v>
+        <v>8.563535911602209</v>
       </c>
       <c r="BO40">
-        <v>82.25806451612902</v>
+        <v>4.838709677419355</v>
       </c>
     </row>
     <row r="41" spans="1:67">
@@ -11628,10 +11628,10 @@
         <v>6.95067264573991</v>
       </c>
       <c r="BN41">
-        <v>25.69060773480663</v>
+        <v>1.933701657458563</v>
       </c>
       <c r="BO41">
-        <v>75</v>
+        <v>-1.612903225806452</v>
       </c>
     </row>
     <row r="42" spans="1:67">
@@ -11828,10 +11828,10 @@
         <v>8.89387144992526</v>
       </c>
       <c r="BN42">
-        <v>32.87292817679558</v>
+        <v>1.38121546961326</v>
       </c>
       <c r="BO42">
-        <v>95.96774193548387</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:67">
@@ -12028,10 +12028,10 @@
         <v>4.857997010463378</v>
       </c>
       <c r="BN43">
-        <v>17.95580110497237</v>
+        <v>0.5524861878453038</v>
       </c>
       <c r="BO43">
-        <v>52.41935483870967</v>
+        <v>-0.8064516129032258</v>
       </c>
     </row>
     <row r="44" spans="1:67">
@@ -12231,10 +12231,10 @@
         <v>7.025411061285499</v>
       </c>
       <c r="BN44">
-        <v>25.96685082872928</v>
+        <v>1.38121546961326</v>
       </c>
       <c r="BO44">
-        <v>75.80645161290323</v>
+        <v>-4.838709677419355</v>
       </c>
     </row>
     <row r="45" spans="1:67">
@@ -12434,10 +12434,10 @@
         <v>6.128550074738415</v>
       </c>
       <c r="BN45">
-        <v>22.65193370165745</v>
+        <v>5.248618784530386</v>
       </c>
       <c r="BO45">
-        <v>66.12903225806451</v>
+        <v>6.451612903225806</v>
       </c>
     </row>
     <row r="46" spans="1:67">
@@ -12637,10 +12637,10 @@
         <v>8.520179372197308</v>
       </c>
       <c r="BN46">
-        <v>31.49171270718232</v>
+        <v>8.563535911602209</v>
       </c>
       <c r="BO46">
-        <v>91.93548387096774</v>
+        <v>8.064516129032258</v>
       </c>
     </row>
     <row r="47" spans="1:67">
@@ -12837,10 +12837,10 @@
         <v>12.25710014947683</v>
       </c>
       <c r="BN47">
-        <v>45.3038674033149</v>
+        <v>0.2762430939226519</v>
       </c>
       <c r="BO47">
-        <v>132.258064516129</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:67">
@@ -13040,10 +13040,10 @@
         <v>10.38863976083707</v>
       </c>
       <c r="BN48">
-        <v>38.39779005524861</v>
+        <v>2.762430939226519</v>
       </c>
       <c r="BO48">
-        <v>112.0967741935484</v>
+        <v>-4.032258064516129</v>
       </c>
     </row>
     <row r="49" spans="1:67">
@@ -13243,10 +13243,10 @@
         <v>7.399103139013452</v>
       </c>
       <c r="BN49">
-        <v>27.34806629834254</v>
+        <v>0.2762430939226519</v>
       </c>
       <c r="BO49">
-        <v>79.83870967741935</v>
+        <v>-0.8064516129032258</v>
       </c>
     </row>
     <row r="50" spans="1:67">
@@ -13446,10 +13446,10 @@
         <v>10.9118086696562</v>
       </c>
       <c r="BN50">
-        <v>40.33149171270718</v>
+        <v>6.353591160220994</v>
       </c>
       <c r="BO50">
-        <v>117.7419354838709</v>
+        <v>4.838709677419355</v>
       </c>
     </row>
     <row r="51" spans="1:67">
@@ -13646,10 +13646,10 @@
         <v>17.63826606875934</v>
       </c>
       <c r="BN51">
-        <v>65.19337016574586</v>
+        <v>37.56906077348066</v>
       </c>
       <c r="BO51">
-        <v>190.3225806451613</v>
+        <v>50</v>
       </c>
     </row>
     <row r="52" spans="1:67">
@@ -13849,10 +13849,10 @@
         <v>15.84454409566517</v>
       </c>
       <c r="BN52">
-        <v>58.5635359116022</v>
+        <v>10.22099447513812</v>
       </c>
       <c r="BO52">
-        <v>170.9677419354838</v>
+        <v>8.064516129032258</v>
       </c>
     </row>
     <row r="53" spans="1:67">
@@ -14049,10 +14049,10 @@
         <v>7.473841554559042</v>
       </c>
       <c r="BN53">
-        <v>27.62430939226519</v>
+        <v>0</v>
       </c>
       <c r="BO53">
-        <v>80.64516129032258</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:67">
@@ -14249,10 +14249,10 @@
         <v>7.324364723467862</v>
       </c>
       <c r="BN54">
-        <v>27.07182320441989</v>
+        <v>0.8287292817679558</v>
       </c>
       <c r="BO54">
-        <v>79.03225806451614</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:67">
@@ -14449,10 +14449,10 @@
         <v>7.548579970104632</v>
       </c>
       <c r="BN55">
-        <v>27.90055248618784</v>
+        <v>0.2762430939226519</v>
       </c>
       <c r="BO55">
-        <v>81.45161290322579</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:67">
@@ -14652,10 +14652,10 @@
         <v>1.195814648729447</v>
       </c>
       <c r="BN56">
-        <v>4.41988950276243</v>
+        <v>-0.2762430939226519</v>
       </c>
       <c r="BO56">
-        <v>12.90322580645161</v>
+        <v>-1.612903225806452</v>
       </c>
     </row>
     <row r="57" spans="1:67">
@@ -14852,10 +14852,10 @@
         <v>-2.391629297458894</v>
       </c>
       <c r="BN57">
-        <v>-8.839779005524861</v>
+        <v>-0.8287292817679558</v>
       </c>
       <c r="BO57">
-        <v>-25.80645161290322</v>
+        <v>-1.612903225806452</v>
       </c>
     </row>
     <row r="58" spans="1:67">
@@ -15052,10 +15052,10 @@
         <v>-7.24962630792227</v>
       </c>
       <c r="BN58">
-        <v>-26.79558011049724</v>
+        <v>-0.5524861878453038</v>
       </c>
       <c r="BO58">
-        <v>-78.2258064516129</v>
+        <v>-0.8064516129032258</v>
       </c>
     </row>
     <row r="59" spans="1:67">
@@ -15255,10 +15255,10 @@
         <v>8.89387144992526</v>
       </c>
       <c r="BN59">
-        <v>32.87292817679558</v>
+        <v>1.104972375690608</v>
       </c>
       <c r="BO59">
-        <v>95.96774193548387</v>
+        <v>0.8064516129032258</v>
       </c>
     </row>
     <row r="60" spans="1:67">
@@ -15458,10 +15458,10 @@
         <v>8.370702541106127</v>
       </c>
       <c r="BN60">
-        <v>30.93922651933701</v>
+        <v>2.209944751381215</v>
       </c>
       <c r="BO60">
-        <v>90.32258064516128</v>
+        <v>-2.419354838709677</v>
       </c>
     </row>
     <row r="61" spans="1:67">
@@ -15658,10 +15658,10 @@
         <v>11.28550074738415</v>
       </c>
       <c r="BN61">
-        <v>41.71270718232044</v>
+        <v>22.65193370165745</v>
       </c>
       <c r="BO61">
-        <v>121.7741935483871</v>
+        <v>20.16129032258064</v>
       </c>
     </row>
     <row r="62" spans="1:67">
@@ -15855,10 +15855,10 @@
         <v>6.427503736920777</v>
       </c>
       <c r="BN62">
-        <v>23.75690607734806</v>
+        <v>0</v>
       </c>
       <c r="BO62">
-        <v>69.35483870967741</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:67">
@@ -16058,10 +16058,10 @@
         <v>9.267563527653214</v>
       </c>
       <c r="BN63">
-        <v>34.25414364640883</v>
+        <v>0.2762430939226519</v>
       </c>
       <c r="BO63">
-        <v>100</v>
+        <v>-2.419354838709677</v>
       </c>
     </row>
     <row r="64" spans="1:67">
@@ -16261,10 +16261,10 @@
         <v>9.118086696562031</v>
       </c>
       <c r="BN64">
-        <v>33.70165745856353</v>
+        <v>1.933701657458563</v>
       </c>
       <c r="BO64">
-        <v>98.38709677419354</v>
+        <v>-1.612903225806452</v>
       </c>
     </row>
     <row r="65" spans="1:67">
@@ -16464,10 +16464,10 @@
         <v>17.33931240657698</v>
       </c>
       <c r="BN65">
-        <v>64.08839779005524</v>
+        <v>35.08287292817679</v>
       </c>
       <c r="BO65">
-        <v>187.0967741935484</v>
+        <v>40.32258064516129</v>
       </c>
     </row>
     <row r="66" spans="1:67">
@@ -16664,10 +16664,10 @@
         <v>8.594917787742899</v>
       </c>
       <c r="BN66">
-        <v>31.76795580110497</v>
+        <v>1.657458563535912</v>
       </c>
       <c r="BO66">
-        <v>92.74193548387096</v>
+        <v>0.8064516129032258</v>
       </c>
     </row>
     <row r="67" spans="1:67">
@@ -16867,10 +16867,10 @@
         <v>9.940209267563526</v>
       </c>
       <c r="BN67">
-        <v>36.74033149171271</v>
+        <v>6.353591160220994</v>
       </c>
       <c r="BO67">
-        <v>107.258064516129</v>
+        <v>6.451612903225806</v>
       </c>
     </row>
     <row r="68" spans="1:67">
@@ -17070,10 +17070,10 @@
         <v>5.829596412556053</v>
       </c>
       <c r="BN68">
-        <v>21.54696132596685</v>
+        <v>2.209944751381215</v>
       </c>
       <c r="BO68">
-        <v>62.90322580645162</v>
+        <v>-0.8064516129032258</v>
       </c>
     </row>
     <row r="69" spans="1:67">
@@ -17273,10 +17273,10 @@
         <v>7.548579970104632</v>
       </c>
       <c r="BN69">
-        <v>27.90055248618784</v>
+        <v>2.209944751381215</v>
       </c>
       <c r="BO69">
-        <v>81.45161290322579</v>
+        <v>-8.064516129032258</v>
       </c>
     </row>
     <row r="70" spans="1:67">
@@ -17476,10 +17476,10 @@
         <v>5.082212257100148</v>
       </c>
       <c r="BN70">
-        <v>18.78453038674033</v>
+        <v>0.2762430939226519</v>
       </c>
       <c r="BO70">
-        <v>54.83870967741935</v>
+        <v>-2.419354838709677</v>
       </c>
     </row>
     <row r="71" spans="1:67">
@@ -17679,10 +17679,10 @@
         <v>7.025411061285499</v>
       </c>
       <c r="BN71">
-        <v>25.96685082872928</v>
+        <v>0.2762430939226519</v>
       </c>
       <c r="BO71">
-        <v>75.80645161290323</v>
+        <v>-0.8064516129032258</v>
       </c>
     </row>
     <row r="72" spans="1:67">
@@ -17882,10 +17882,10 @@
         <v>8.370702541106127</v>
       </c>
       <c r="BN72">
-        <v>30.93922651933701</v>
+        <v>0.8287292817679558</v>
       </c>
       <c r="BO72">
-        <v>90.32258064516128</v>
+        <v>-1.612903225806452</v>
       </c>
     </row>
     <row r="73" spans="1:67">
@@ -18085,10 +18085,10 @@
         <v>11.28550074738415</v>
       </c>
       <c r="BN73">
-        <v>41.71270718232044</v>
+        <v>5.801104972375691</v>
       </c>
       <c r="BO73">
-        <v>121.7741935483871</v>
+        <v>4.032258064516129</v>
       </c>
     </row>
     <row r="74" spans="1:67">
@@ -18288,10 +18288,10 @@
         <v>14.57399103139013</v>
       </c>
       <c r="BN74">
-        <v>53.86740331491713</v>
+        <v>20.99447513812154</v>
       </c>
       <c r="BO74">
-        <v>157.258064516129</v>
+        <v>14.51612903225807</v>
       </c>
     </row>
     <row r="75" spans="1:67">
@@ -18491,10 +18491,10 @@
         <v>11.88340807174888</v>
       </c>
       <c r="BN75">
-        <v>43.92265193370166</v>
+        <v>0.5524861878453038</v>
       </c>
       <c r="BO75">
-        <v>128.2258064516129</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:67">
@@ -18694,10 +18694,10 @@
         <v>6.651718983557549</v>
       </c>
       <c r="BN76">
-        <v>24.58563535911602</v>
+        <v>0.5524861878453038</v>
       </c>
       <c r="BO76">
-        <v>71.7741935483871</v>
+        <v>-4.032258064516129</v>
       </c>
     </row>
     <row r="77" spans="1:67">
@@ -18897,10 +18897,10 @@
         <v>15.32137518684604</v>
       </c>
       <c r="BN77">
-        <v>56.62983425414364</v>
+        <v>19.33701657458563</v>
       </c>
       <c r="BO77">
-        <v>165.3225806451613</v>
+        <v>29.83870967741936</v>
       </c>
     </row>
     <row r="78" spans="1:67">
@@ -19100,10 +19100,10 @@
         <v>15.91928251121076</v>
       </c>
       <c r="BN78">
-        <v>58.83977900552486</v>
+        <v>23.75690607734806</v>
       </c>
       <c r="BO78">
-        <v>171.7741935483871</v>
+        <v>22.58064516129032</v>
       </c>
     </row>
     <row r="79" spans="1:67">
@@ -19303,10 +19303,10 @@
         <v>11.21076233183856</v>
       </c>
       <c r="BN79">
-        <v>41.43646408839778</v>
+        <v>14.64088397790055</v>
       </c>
       <c r="BO79">
-        <v>120.9677419354839</v>
+        <v>5.64516129032258</v>
       </c>
     </row>
     <row r="80" spans="1:67">
@@ -19503,10 +19503,10 @@
         <v>9.715994020926756</v>
       </c>
       <c r="BN80">
-        <v>35.91160220994475</v>
+        <v>4.972375690607735</v>
       </c>
       <c r="BO80">
-        <v>104.8387096774193</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:67">
@@ -19706,10 +19706,10 @@
         <v>7.698056801195814</v>
       </c>
       <c r="BN81">
-        <v>28.45303867403315</v>
+        <v>3.314917127071823</v>
       </c>
       <c r="BO81">
-        <v>83.06451612903226</v>
+        <v>-3.225806451612903</v>
       </c>
     </row>
     <row r="82" spans="1:67">
@@ -19909,10 +19909,10 @@
         <v>6.576980568011958</v>
       </c>
       <c r="BN82">
-        <v>24.30939226519337</v>
+        <v>3.038674033149171</v>
       </c>
       <c r="BO82">
-        <v>70.96774193548387</v>
+        <v>-8.870967741935484</v>
       </c>
     </row>
     <row r="83" spans="1:67">
@@ -20112,10 +20112,10 @@
         <v>11.36023916292974</v>
       </c>
       <c r="BN83">
-        <v>41.98895027624309</v>
+        <v>23.75690607734806</v>
       </c>
       <c r="BO83">
-        <v>122.5806451612903</v>
+        <v>33.87096774193549</v>
       </c>
     </row>
     <row r="84" spans="1:67">
@@ -20315,10 +20315,10 @@
         <v>12.4813153961136</v>
       </c>
       <c r="BN84">
-        <v>46.13259668508287</v>
+        <v>14.64088397790055</v>
       </c>
       <c r="BO84">
-        <v>134.6774193548387</v>
+        <v>6.451612903225806</v>
       </c>
     </row>
     <row r="85" spans="1:67">
@@ -20518,10 +20518,10 @@
         <v>9.417040358744394</v>
       </c>
       <c r="BN85">
-        <v>34.80662983425414</v>
+        <v>7.734806629834252</v>
       </c>
       <c r="BO85">
-        <v>101.6129032258064</v>
+        <v>4.032258064516129</v>
       </c>
     </row>
     <row r="86" spans="1:67">
@@ -20721,10 +20721,10 @@
         <v>6.576980568011958</v>
       </c>
       <c r="BN86">
-        <v>24.30939226519337</v>
+        <v>-0.8287292817679558</v>
       </c>
       <c r="BO86">
-        <v>70.96774193548387</v>
+        <v>-2.419354838709677</v>
       </c>
     </row>
     <row r="87" spans="1:67">
@@ -20924,10 +20924,10 @@
         <v>12.10762331838565</v>
       </c>
       <c r="BN87">
-        <v>44.75138121546961</v>
+        <v>16.29834254143647</v>
       </c>
       <c r="BO87">
-        <v>130.6451612903226</v>
+        <v>11.29032258064516</v>
       </c>
     </row>
     <row r="88" spans="1:67">
@@ -21127,10 +21127,10 @@
         <v>6.576980568011958</v>
       </c>
       <c r="BN88">
-        <v>24.30939226519337</v>
+        <v>1.104972375690608</v>
       </c>
       <c r="BO88">
-        <v>70.96774193548387</v>
+        <v>-5.64516129032258</v>
       </c>
     </row>
     <row r="89" spans="1:67">
@@ -21330,10 +21330,10 @@
         <v>8.295964125560538</v>
       </c>
       <c r="BN89">
-        <v>30.66298342541436</v>
+        <v>1.104972375690608</v>
       </c>
       <c r="BO89">
-        <v>89.51612903225806</v>
+        <v>-2.419354838709677</v>
       </c>
     </row>
     <row r="90" spans="1:67">
@@ -21533,10 +21533,10 @@
         <v>8.594917787742899</v>
       </c>
       <c r="BN90">
-        <v>31.76795580110497</v>
+        <v>9.116022099447513</v>
       </c>
       <c r="BO90">
-        <v>92.74193548387096</v>
+        <v>1.612903225806452</v>
       </c>
     </row>
     <row r="91" spans="1:67">
@@ -21736,10 +21736,10 @@
         <v>7.997010463378175</v>
       </c>
       <c r="BN91">
-        <v>29.55801104972375</v>
+        <v>8.287292817679557</v>
       </c>
       <c r="BO91">
-        <v>86.29032258064515</v>
+        <v>3.225806451612903</v>
       </c>
     </row>
     <row r="92" spans="1:67">
@@ -21939,10 +21939,10 @@
         <v>8.594917787742899</v>
       </c>
       <c r="BN92">
-        <v>31.76795580110497</v>
+        <v>0.2762430939226519</v>
       </c>
       <c r="BO92">
-        <v>92.74193548387096</v>
+        <v>-0.8064516129032258</v>
       </c>
     </row>
     <row r="93" spans="1:67">
@@ -22142,10 +22142,10 @@
         <v>11.43497757847534</v>
       </c>
       <c r="BN93">
-        <v>42.26519337016575</v>
+        <v>1.657458563535912</v>
       </c>
       <c r="BO93">
-        <v>123.3870967741936</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:67">
@@ -22345,10 +22345,10 @@
         <v>12.78026905829596</v>
       </c>
       <c r="BN94">
-        <v>47.23756906077348</v>
+        <v>1.104972375690608</v>
       </c>
       <c r="BO94">
-        <v>137.9032258064516</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:67">
@@ -22548,10 +22548,10 @@
         <v>10.68759342301943</v>
       </c>
       <c r="BN95">
-        <v>39.50276243093923</v>
+        <v>7.18232044198895</v>
       </c>
       <c r="BO95">
-        <v>115.3225806451613</v>
+        <v>2.419354838709677</v>
       </c>
     </row>
     <row r="96" spans="1:67">
@@ -22751,10 +22751,10 @@
         <v>10.83707025411061</v>
       </c>
       <c r="BN96">
-        <v>40.05524861878452</v>
+        <v>6.077348066298343</v>
       </c>
       <c r="BO96">
-        <v>116.9354838709677</v>
+        <v>0.8064516129032258</v>
       </c>
     </row>
     <row r="97" spans="1:67">
@@ -22954,10 +22954,10 @@
         <v>8.819133034379671</v>
       </c>
       <c r="BN97">
-        <v>32.59668508287293</v>
+        <v>1.657458563535912</v>
       </c>
       <c r="BO97">
-        <v>95.16129032258065</v>
+        <v>-1.612903225806452</v>
       </c>
     </row>
     <row r="98" spans="1:67">
@@ -23157,10 +23157,10 @@
         <v>8.968609865470851</v>
       </c>
       <c r="BN98">
-        <v>33.14917127071823</v>
+        <v>3.314917127071823</v>
       </c>
       <c r="BO98">
-        <v>96.77419354838709</v>
+        <v>-2.419354838709677</v>
       </c>
     </row>
     <row r="99" spans="1:67">
@@ -23357,10 +23357,10 @@
         <v>10.76233183856502</v>
       </c>
       <c r="BN99">
-        <v>39.77900552486188</v>
+        <v>4.972375690607735</v>
       </c>
       <c r="BO99">
-        <v>116.1290322580645</v>
+        <v>-5.64516129032258</v>
       </c>
     </row>
     <row r="100" spans="1:67">
@@ -23560,10 +23560,10 @@
         <v>4.633781763826607</v>
       </c>
       <c r="BN100">
-        <v>17.12707182320442</v>
+        <v>6.353591160220994</v>
       </c>
       <c r="BO100">
-        <v>50</v>
+        <v>-3.225806451612903</v>
       </c>
     </row>
     <row r="101" spans="1:67">
@@ -23760,10 +23760,10 @@
         <v>9.865470852017935</v>
       </c>
       <c r="BN101">
-        <v>36.46408839779005</v>
+        <v>0.8287292817679558</v>
       </c>
       <c r="BO101">
-        <v>106.4516129032258</v>
+        <v>-0.8064516129032258</v>
       </c>
     </row>
     <row r="102" spans="1:67">
@@ -23960,10 +23960,10 @@
         <v>8.445440956651719</v>
       </c>
       <c r="BN102">
-        <v>31.21546961325967</v>
+        <v>0.8287292817679558</v>
       </c>
       <c r="BO102">
-        <v>91.12903225806453</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:67">
@@ -24163,10 +24163,10 @@
         <v>10.01494768310912</v>
       </c>
       <c r="BN103">
-        <v>37.01657458563536</v>
+        <v>16.29834254143647</v>
       </c>
       <c r="BO103">
-        <v>108.0645161290323</v>
+        <v>9.67741935483871</v>
       </c>
     </row>
     <row r="104" spans="1:67">
@@ -24366,10 +24366,10 @@
         <v>11.06128550074738</v>
       </c>
       <c r="BN104">
-        <v>40.88397790055249</v>
+        <v>17.95580110497237</v>
       </c>
       <c r="BO104">
-        <v>119.3548387096774</v>
+        <v>11.29032258064516</v>
       </c>
     </row>
     <row r="105" spans="1:67">
@@ -24569,10 +24569,10 @@
         <v>13.60239162929746</v>
       </c>
       <c r="BN105">
-        <v>50.27624309392264</v>
+        <v>22.65193370165745</v>
       </c>
       <c r="BO105">
-        <v>146.7741935483871</v>
+        <v>41.93548387096774</v>
       </c>
     </row>
     <row r="106" spans="1:67">
@@ -24769,10 +24769,10 @@
         <v>12.40657698056801</v>
       </c>
       <c r="BN106">
-        <v>45.85635359116022</v>
+        <v>23.48066298342541</v>
       </c>
       <c r="BO106">
-        <v>133.8709677419355</v>
+        <v>21.7741935483871</v>
       </c>
     </row>
     <row r="107" spans="1:67">
@@ -24972,10 +24972,10 @@
         <v>4.857997010463378</v>
       </c>
       <c r="BN107">
-        <v>17.95580110497237</v>
+        <v>-0.8287292817679558</v>
       </c>
       <c r="BO107">
-        <v>52.41935483870967</v>
+        <v>-1.612903225806452</v>
       </c>
     </row>
     <row r="108" spans="1:67">
@@ -25175,10 +25175,10 @@
         <v>7.997010463378175</v>
       </c>
       <c r="BN108">
-        <v>29.55801104972375</v>
+        <v>4.696132596685083</v>
       </c>
       <c r="BO108">
-        <v>86.29032258064515</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:67">
@@ -25378,10 +25378,10 @@
         <v>11.88340807174888</v>
       </c>
       <c r="BN109">
-        <v>43.92265193370166</v>
+        <v>7.734806629834252</v>
       </c>
       <c r="BO109">
-        <v>128.2258064516129</v>
+        <v>0.8064516129032258</v>
       </c>
     </row>
     <row r="110" spans="1:67">
@@ -25578,10 +25578,10 @@
         <v>7.548579970104632</v>
       </c>
       <c r="BN110">
-        <v>27.90055248618784</v>
+        <v>2.762430939226519</v>
       </c>
       <c r="BO110">
-        <v>81.45161290322579</v>
+        <v>-0.8064516129032258</v>
       </c>
     </row>
     <row r="111" spans="1:67">
@@ -25775,10 +25775,10 @@
         <v>5.30642750373692</v>
       </c>
       <c r="BN111">
-        <v>19.61325966850828</v>
+        <v>0</v>
       </c>
       <c r="BO111">
-        <v>57.25806451612902</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:67">
@@ -25978,10 +25978,10 @@
         <v>10.31390134529148</v>
       </c>
       <c r="BN112">
-        <v>38.12154696132596</v>
+        <v>6.906077348066297</v>
       </c>
       <c r="BO112">
-        <v>111.2903225806452</v>
+        <v>4.032258064516129</v>
       </c>
     </row>
     <row r="113" spans="1:67">
@@ -26181,10 +26181,10 @@
         <v>8.221225710014947</v>
       </c>
       <c r="BN113">
-        <v>30.38674033149171</v>
+        <v>0.2762430939226519</v>
       </c>
       <c r="BO113">
-        <v>88.70967741935483</v>
+        <v>-1.612903225806452</v>
       </c>
     </row>
     <row r="114" spans="1:67">
@@ -26384,10 +26384,10 @@
         <v>4.783258594917788</v>
       </c>
       <c r="BN114">
-        <v>17.67955801104972</v>
+        <v>-0.2762430939226519</v>
       </c>
       <c r="BO114">
-        <v>51.61290322580645</v>
+        <v>-0.8064516129032258</v>
       </c>
     </row>
     <row r="115" spans="1:67">
@@ -26584,10 +26584,10 @@
         <v>2.391629297458894</v>
       </c>
       <c r="BN115">
-        <v>8.839779005524861</v>
+        <v>-0.8287292817679558</v>
       </c>
       <c r="BO115">
-        <v>25.80645161290322</v>
+        <v>-1.612903225806452</v>
       </c>
     </row>
     <row r="116" spans="1:67">
@@ -26787,10 +26787,10 @@
         <v>12.70553064275037</v>
       </c>
       <c r="BN116">
-        <v>46.96132596685082</v>
+        <v>20.16574585635359</v>
       </c>
       <c r="BO116">
-        <v>137.0967741935484</v>
+        <v>26.61290322580645</v>
       </c>
     </row>
     <row r="117" spans="1:67">
@@ -26987,10 +26987,10 @@
         <v>6.576980568011958</v>
       </c>
       <c r="BN117">
-        <v>24.30939226519337</v>
+        <v>0.8287292817679558</v>
       </c>
       <c r="BO117">
-        <v>70.96774193548387</v>
+        <v>-4.838709677419355</v>
       </c>
     </row>
     <row r="118" spans="1:67">
@@ -27190,10 +27190,10 @@
         <v>5.530642750373691</v>
       </c>
       <c r="BN118">
-        <v>20.44198895027624</v>
+        <v>0</v>
       </c>
       <c r="BO118">
-        <v>59.67741935483871</v>
+        <v>-1.612903225806452</v>
       </c>
     </row>
     <row r="119" spans="1:67">
@@ -27393,10 +27393,10 @@
         <v>9.267563527653214</v>
       </c>
       <c r="BN119">
-        <v>34.25414364640883</v>
+        <v>4.696132596685083</v>
       </c>
       <c r="BO119">
-        <v>100</v>
+        <v>0.8064516129032258</v>
       </c>
     </row>
     <row r="120" spans="1:67">
@@ -27596,10 +27596,10 @@
         <v>9.491778774289985</v>
       </c>
       <c r="BN120">
-        <v>35.08287292817679</v>
+        <v>4.41988950276243</v>
       </c>
       <c r="BO120">
-        <v>102.4193548387097</v>
+        <v>-4.838709677419355</v>
       </c>
     </row>
     <row r="121" spans="1:67">
@@ -27799,10 +27799,10 @@
         <v>5.30642750373692</v>
       </c>
       <c r="BN121">
-        <v>19.61325966850828</v>
+        <v>0.8287292817679558</v>
       </c>
       <c r="BO121">
-        <v>57.25806451612902</v>
+        <v>-0.8064516129032258</v>
       </c>
     </row>
     <row r="122" spans="1:67">
@@ -28002,10 +28002,10 @@
         <v>20.17937219730942</v>
       </c>
       <c r="BN122">
-        <v>74.58563535911603</v>
+        <v>49.17127071823204</v>
       </c>
       <c r="BO122">
-        <v>217.7419354838709</v>
+        <v>65.32258064516128</v>
       </c>
     </row>
     <row r="123" spans="1:67">
@@ -28205,10 +28205,10 @@
         <v>6.352765321375187</v>
       </c>
       <c r="BN123">
-        <v>23.48066298342541</v>
+        <v>-0.8287292817679558</v>
       </c>
       <c r="BO123">
-        <v>68.54838709677419</v>
+        <v>-4.032258064516129</v>
       </c>
     </row>
     <row r="124" spans="1:67">
@@ -28405,10 +28405,10 @@
         <v>8.221225710014947</v>
       </c>
       <c r="BN124">
-        <v>30.38674033149171</v>
+        <v>0.5524861878453038</v>
       </c>
       <c r="BO124">
-        <v>88.70967741935483</v>
+        <v>-1.612903225806452</v>
       </c>
     </row>
     <row r="125" spans="1:67">
@@ -28608,10 +28608,10 @@
         <v>6.801195814648729</v>
       </c>
       <c r="BN125">
-        <v>25.13812154696132</v>
+        <v>6.077348066298343</v>
       </c>
       <c r="BO125">
-        <v>73.38709677419354</v>
+        <v>1.612903225806452</v>
       </c>
     </row>
     <row r="126" spans="1:67">
@@ -28808,10 +28808,10 @@
         <v>7.399103139013452</v>
       </c>
       <c r="BN126">
-        <v>27.34806629834254</v>
+        <v>1.38121546961326</v>
       </c>
       <c r="BO126">
-        <v>79.83870967741935</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:67">
@@ -29011,10 +29011,10 @@
         <v>8.594917787742899</v>
       </c>
       <c r="BN127">
-        <v>31.76795580110497</v>
+        <v>0.2762430939226519</v>
       </c>
       <c r="BO127">
-        <v>92.74193548387096</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:67">
@@ -29214,10 +29214,10 @@
         <v>10.76233183856502</v>
       </c>
       <c r="BN128">
-        <v>39.77900552486188</v>
+        <v>3.867403314917126</v>
       </c>
       <c r="BO128">
-        <v>116.1290322580645</v>
+        <v>-5.64516129032258</v>
       </c>
     </row>
     <row r="129" spans="1:67">
@@ -29417,10 +29417,10 @@
         <v>8.370702541106127</v>
       </c>
       <c r="BN129">
-        <v>30.93922651933701</v>
+        <v>6.353591160220994</v>
       </c>
       <c r="BO129">
-        <v>90.32258064516128</v>
+        <v>4.032258064516129</v>
       </c>
     </row>
     <row r="130" spans="1:67">
@@ -29620,10 +29620,10 @@
         <v>13.15396113602392</v>
       </c>
       <c r="BN130">
-        <v>48.61878453038674</v>
+        <v>17.40331491712707</v>
       </c>
       <c r="BO130">
-        <v>141.9354838709677</v>
+        <v>16.93548387096774</v>
       </c>
     </row>
     <row r="131" spans="1:67">
@@ -29823,10 +29823,10 @@
         <v>10.46337817638266</v>
       </c>
       <c r="BN131">
-        <v>38.67403314917127</v>
+        <v>15.19337016574586</v>
       </c>
       <c r="BO131">
-        <v>112.9032258064516</v>
+        <v>11.29032258064516</v>
       </c>
     </row>
     <row r="132" spans="1:67">
@@ -30026,10 +30026,10 @@
         <v>10.61285500747384</v>
       </c>
       <c r="BN132">
-        <v>39.22651933701657</v>
+        <v>3.038674033149171</v>
       </c>
       <c r="BO132">
-        <v>114.516129032258</v>
+        <v>-6.451612903225806</v>
       </c>
     </row>
     <row r="133" spans="1:67">
@@ -30229,10 +30229,10 @@
         <v>-0.6726457399103138</v>
       </c>
       <c r="BN133">
-        <v>-2.486187845303867</v>
+        <v>-0.5524861878453038</v>
       </c>
       <c r="BO133">
-        <v>-7.258064516129033</v>
+        <v>-1.612903225806452</v>
       </c>
     </row>
     <row r="134" spans="1:67">
@@ -30429,10 +30429,10 @@
         <v>7.473841554559042</v>
       </c>
       <c r="BN134">
-        <v>27.62430939226519</v>
+        <v>2.209944751381215</v>
       </c>
       <c r="BO134">
-        <v>80.64516129032258</v>
+        <v>-4.032258064516129</v>
       </c>
     </row>
     <row r="135" spans="1:67">
@@ -30632,10 +30632,10 @@
         <v>2.092675635276532</v>
       </c>
       <c r="BN135">
-        <v>7.734806629834252</v>
+        <v>-0.2762430939226519</v>
       </c>
       <c r="BO135">
-        <v>22.58064516129032</v>
+        <v>-0.8064516129032258</v>
       </c>
     </row>
     <row r="136" spans="1:67">
@@ -30835,10 +30835,10 @@
         <v>11.88340807174888</v>
       </c>
       <c r="BN136">
-        <v>43.92265193370166</v>
+        <v>12.43093922651934</v>
       </c>
       <c r="BO136">
-        <v>128.2258064516129</v>
+        <v>0.8064516129032258</v>
       </c>
     </row>
     <row r="137" spans="1:67">
@@ -31038,10 +31038,10 @@
         <v>3.58744394618834</v>
       </c>
       <c r="BN137">
-        <v>13.25966850828729</v>
+        <v>0</v>
       </c>
       <c r="BO137">
-        <v>38.70967741935484</v>
+        <v>-0.8064516129032258</v>
       </c>
     </row>
     <row r="138" spans="1:67">
@@ -31241,10 +31241,10 @@
         <v>9.641255605381167</v>
       </c>
       <c r="BN138">
-        <v>35.63535911602209</v>
+        <v>11.60220994475138</v>
       </c>
       <c r="BO138">
-        <v>104.0322580645161</v>
+        <v>8.064516129032258</v>
       </c>
     </row>
     <row r="139" spans="1:67">
@@ -31444,10 +31444,10 @@
         <v>8.445440956651719</v>
       </c>
       <c r="BN139">
-        <v>31.21546961325967</v>
+        <v>0.2762430939226519</v>
       </c>
       <c r="BO139">
-        <v>91.12903225806453</v>
+        <v>-1.612903225806452</v>
       </c>
     </row>
     <row r="140" spans="1:67">
@@ -31644,10 +31644,10 @@
         <v>7.10014947683109</v>
       </c>
       <c r="BN140">
-        <v>26.24309392265193</v>
+        <v>1.38121546961326</v>
       </c>
       <c r="BO140">
-        <v>76.61290322580645</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:67">
@@ -31847,10 +31847,10 @@
         <v>8.445440956651719</v>
       </c>
       <c r="BN141">
-        <v>31.21546961325967</v>
+        <v>11.87845303867403</v>
       </c>
       <c r="BO141">
-        <v>91.12903225806453</v>
+        <v>12.09677419354839</v>
       </c>
     </row>
     <row r="142" spans="1:67">
@@ -32047,10 +32047,10 @@
         <v>9.342301943198803</v>
       </c>
       <c r="BN142">
-        <v>34.53038674033149</v>
+        <v>3.314917127071823</v>
       </c>
       <c r="BO142">
-        <v>100.8064516129032</v>
+        <v>2.419354838709677</v>
       </c>
     </row>
     <row r="143" spans="1:67">
@@ -32250,10 +32250,10 @@
         <v>14.27503736920777</v>
       </c>
       <c r="BN143">
-        <v>52.76243093922653</v>
+        <v>12.15469613259669</v>
       </c>
       <c r="BO143">
-        <v>154.0322580645161</v>
+        <v>23.38709677419355</v>
       </c>
     </row>
     <row r="144" spans="1:67">
@@ -32453,10 +32453,10 @@
         <v>10.31390134529148</v>
       </c>
       <c r="BN144">
-        <v>38.12154696132596</v>
+        <v>4.41988950276243</v>
       </c>
       <c r="BO144">
-        <v>111.2903225806452</v>
+        <v>-0.8064516129032258</v>
       </c>
     </row>
     <row r="145" spans="1:67">
@@ -32656,10 +32656,10 @@
         <v>17.78774289985052</v>
       </c>
       <c r="BN145">
-        <v>65.74585635359117</v>
+        <v>35.35911602209944</v>
       </c>
       <c r="BO145">
-        <v>191.9354838709677</v>
+        <v>56.4516129032258</v>
       </c>
     </row>
     <row r="146" spans="1:67">
@@ -32856,10 +32856,10 @@
         <v>4.708520179372197</v>
       </c>
       <c r="BN146">
-        <v>17.40331491712707</v>
+        <v>-0.2762430939226519</v>
       </c>
       <c r="BO146">
-        <v>50.80645161290322</v>
+        <v>-1.612903225806452</v>
       </c>
     </row>
     <row r="147" spans="1:67">
@@ -33059,10 +33059,10 @@
         <v>9.192825112107624</v>
       </c>
       <c r="BN147">
-        <v>33.97790055248619</v>
+        <v>14.08839779005525</v>
       </c>
       <c r="BO147">
-        <v>99.19354838709677</v>
+        <v>10.48387096774194</v>
       </c>
     </row>
     <row r="148" spans="1:67">
@@ -33262,10 +33262,10 @@
         <v>14.57399103139013</v>
       </c>
       <c r="BN148">
-        <v>53.86740331491713</v>
+        <v>20.99447513812154</v>
       </c>
       <c r="BO148">
-        <v>157.258064516129</v>
+        <v>25.80645161290322</v>
       </c>
     </row>
     <row r="149" spans="1:67">
@@ -33465,10 +33465,10 @@
         <v>10.01494768310912</v>
       </c>
       <c r="BN149">
-        <v>37.01657458563536</v>
+        <v>3.867403314917126</v>
       </c>
       <c r="BO149">
-        <v>108.0645161290323</v>
+        <v>-4.032258064516129</v>
       </c>
     </row>
     <row r="150" spans="1:67">
@@ -33665,10 +33665,10 @@
         <v>-1.195814648729447</v>
       </c>
       <c r="BN150">
-        <v>-4.41988950276243</v>
+        <v>-0.2762430939226519</v>
       </c>
       <c r="BO150">
-        <v>-12.90322580645161</v>
+        <v>-0.8064516129032258</v>
       </c>
     </row>
     <row r="151" spans="1:67">
@@ -33868,10 +33868,10 @@
         <v>9.417040358744394</v>
       </c>
       <c r="BN151">
-        <v>34.80662983425414</v>
+        <v>11.60220994475138</v>
       </c>
       <c r="BO151">
-        <v>101.6129032258064</v>
+        <v>9.67741935483871</v>
       </c>
     </row>
     <row r="152" spans="1:67">
@@ -34071,10 +34071,10 @@
         <v>6.87593423019432</v>
       </c>
       <c r="BN152">
-        <v>25.41436464088397</v>
+        <v>0.2762430939226519</v>
       </c>
       <c r="BO152">
-        <v>74.19354838709677</v>
+        <v>-3.225806451612903</v>
       </c>
     </row>
     <row r="153" spans="1:67">
@@ -34274,10 +34274,10 @@
         <v>5.680119581464872</v>
       </c>
       <c r="BN153">
-        <v>20.99447513812154</v>
+        <v>1.933701657458563</v>
       </c>
       <c r="BO153">
-        <v>61.29032258064515</v>
+        <v>-4.838709677419355</v>
       </c>
     </row>
     <row r="154" spans="1:67">
@@ -34477,10 +34477,10 @@
         <v>9.790732436472346</v>
       </c>
       <c r="BN154">
-        <v>36.1878453038674</v>
+        <v>2.486187845303867</v>
       </c>
       <c r="BO154">
-        <v>105.6451612903226</v>
+        <v>-1.612903225806452</v>
       </c>
     </row>
     <row r="155" spans="1:67">
@@ -34677,10 +34677,10 @@
         <v>-0.6726457399103138</v>
       </c>
       <c r="BN155">
-        <v>-2.486187845303867</v>
+        <v>-0.2762430939226519</v>
       </c>
       <c r="BO155">
-        <v>-7.258064516129033</v>
+        <v>-0.8064516129032258</v>
       </c>
     </row>
     <row r="156" spans="1:67">
@@ -34880,10 +34880,10 @@
         <v>9.491778774289985</v>
       </c>
       <c r="BN156">
-        <v>35.08287292817679</v>
+        <v>13.25966850828729</v>
       </c>
       <c r="BO156">
-        <v>102.4193548387097</v>
+        <v>10.48387096774194</v>
       </c>
     </row>
     <row r="157" spans="1:67">
@@ -35080,10 +35080,10 @@
         <v>10.38863976083707</v>
       </c>
       <c r="BN157">
-        <v>38.39779005524861</v>
+        <v>15.4696132596685</v>
       </c>
       <c r="BO157">
-        <v>112.0967741935484</v>
+        <v>10.48387096774194</v>
       </c>
     </row>
     <row r="158" spans="1:67">
@@ -35283,10 +35283,10 @@
         <v>10.61285500747384</v>
       </c>
       <c r="BN158">
-        <v>39.22651933701657</v>
+        <v>9.668508287292816</v>
       </c>
       <c r="BO158">
-        <v>114.516129032258</v>
+        <v>12.09677419354839</v>
       </c>
     </row>
     <row r="159" spans="1:67">
@@ -35486,10 +35486,10 @@
         <v>10.31390134529148</v>
       </c>
       <c r="BN159">
-        <v>38.12154696132596</v>
+        <v>6.629834254143646</v>
       </c>
       <c r="BO159">
-        <v>111.2903225806452</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:67">
@@ -35689,10 +35689,10 @@
         <v>7.24962630792227</v>
       </c>
       <c r="BN160">
-        <v>26.79558011049724</v>
+        <v>2.486187845303867</v>
       </c>
       <c r="BO160">
-        <v>78.2258064516129</v>
+        <v>0.8064516129032258</v>
       </c>
     </row>
     <row r="161" spans="1:67">
@@ -35892,10 +35892,10 @@
         <v>8.819133034379671</v>
       </c>
       <c r="BN161">
-        <v>32.59668508287293</v>
+        <v>0.2762430939226519</v>
       </c>
       <c r="BO161">
-        <v>95.16129032258065</v>
+        <v>-3.225806451612903</v>
       </c>
     </row>
     <row r="162" spans="1:67">
@@ -36095,10 +36095,10 @@
         <v>7.24962630792227</v>
       </c>
       <c r="BN162">
-        <v>26.79558011049724</v>
+        <v>3.314917127071823</v>
       </c>
       <c r="BO162">
-        <v>78.2258064516129</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:67">
@@ -36298,10 +36298,10 @@
         <v>12.63079222720478</v>
       </c>
       <c r="BN163">
-        <v>46.68508287292817</v>
+        <v>11.04972375690608</v>
       </c>
       <c r="BO163">
-        <v>136.2903225806452</v>
+        <v>0.8064516129032258</v>
       </c>
     </row>
     <row r="164" spans="1:67">
@@ -36501,10 +36501,10 @@
         <v>8.146487294469356</v>
       </c>
       <c r="BN164">
-        <v>30.11049723756906</v>
+        <v>0.5524861878453038</v>
       </c>
       <c r="BO164">
-        <v>87.90322580645162</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:67">
@@ -36701,10 +36701,10 @@
         <v>10.08968609865471</v>
       </c>
       <c r="BN165">
-        <v>37.29281767955801</v>
+        <v>3.038674033149171</v>
       </c>
       <c r="BO165">
-        <v>108.8709677419355</v>
+        <v>-6.451612903225806</v>
       </c>
     </row>
     <row r="166" spans="1:67">
@@ -36904,10 +36904,10 @@
         <v>10.38863976083707</v>
       </c>
       <c r="BN166">
-        <v>38.39779005524861</v>
+        <v>8.011049723756905</v>
       </c>
       <c r="BO166">
-        <v>112.0967741935484</v>
+        <v>9.67741935483871</v>
       </c>
     </row>
     <row r="167" spans="1:67">
@@ -37107,10 +37107,10 @@
         <v>10.1644245142003</v>
       </c>
       <c r="BN167">
-        <v>37.56906077348066</v>
+        <v>4.972375690607735</v>
       </c>
       <c r="BO167">
-        <v>109.6774193548387</v>
+        <v>1.612903225806452</v>
       </c>
     </row>
     <row r="168" spans="1:67">
@@ -37310,10 +37310,10 @@
         <v>10.53811659192825</v>
       </c>
       <c r="BN168">
-        <v>38.95027624309392</v>
+        <v>16.85082872928177</v>
       </c>
       <c r="BO168">
-        <v>113.7096774193548</v>
+        <v>7.258064516129033</v>
       </c>
     </row>
     <row r="169" spans="1:67">
@@ -37513,10 +37513,10 @@
         <v>10.68759342301943</v>
       </c>
       <c r="BN169">
-        <v>39.50276243093923</v>
+        <v>7.18232044198895</v>
       </c>
       <c r="BO169">
-        <v>115.3225806451613</v>
+        <v>2.419354838709677</v>
       </c>
     </row>
     <row r="170" spans="1:67">
@@ -37716,10 +37716,10 @@
         <v>9.715994020926756</v>
       </c>
       <c r="BN170">
-        <v>35.91160220994475</v>
+        <v>8.287292817679557</v>
       </c>
       <c r="BO170">
-        <v>104.8387096774193</v>
+        <v>-2.419354838709677</v>
       </c>
     </row>
     <row r="171" spans="1:67">
@@ -37919,10 +37919,10 @@
         <v>11.7339312406577</v>
       </c>
       <c r="BN171">
-        <v>43.37016574585635</v>
+        <v>14.08839779005525</v>
       </c>
       <c r="BO171">
-        <v>126.6129032258064</v>
+        <v>6.451612903225806</v>
       </c>
     </row>
     <row r="172" spans="1:67">
@@ -38122,10 +38122,10 @@
         <v>10.08968609865471</v>
       </c>
       <c r="BN172">
-        <v>37.29281767955801</v>
+        <v>0.8287292817679558</v>
       </c>
       <c r="BO172">
-        <v>108.8709677419355</v>
+        <v>0.8064516129032258</v>
       </c>
     </row>
     <row r="173" spans="1:67">
@@ -38322,10 +38322,10 @@
         <v>5.829596412556053</v>
       </c>
       <c r="BN173">
-        <v>21.54696132596685</v>
+        <v>0</v>
       </c>
       <c r="BO173">
-        <v>62.90322580645162</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:67">
@@ -38522,10 +38522,10 @@
         <v>10.53811659192825</v>
       </c>
       <c r="BN174">
-        <v>38.95027624309392</v>
+        <v>4.972375690607735</v>
       </c>
       <c r="BO174">
-        <v>113.7096774193548</v>
+        <v>1.612903225806452</v>
       </c>
     </row>
     <row r="175" spans="1:67">
@@ -38725,10 +38725,10 @@
         <v>7.772795216741405</v>
       </c>
       <c r="BN175">
-        <v>28.7292817679558</v>
+        <v>4.143646408839778</v>
       </c>
       <c r="BO175">
-        <v>83.87096774193549</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:67">
@@ -38928,10 +38928,10 @@
         <v>2.989536621823617</v>
       </c>
       <c r="BN176">
-        <v>11.04972375690608</v>
+        <v>-0.5524861878453038</v>
       </c>
       <c r="BO176">
-        <v>32.25806451612903</v>
+        <v>-1.612903225806452</v>
       </c>
     </row>
     <row r="177" spans="1:67">
@@ -39128,10 +39128,10 @@
         <v>10.23916292974589</v>
       </c>
       <c r="BN177">
-        <v>37.84530386740331</v>
+        <v>8.563535911602209</v>
       </c>
       <c r="BO177">
-        <v>110.4838709677419</v>
+        <v>6.451612903225806</v>
       </c>
     </row>
     <row r="178" spans="1:67">
@@ -39331,10 +39331,10 @@
         <v>10.01494768310912</v>
       </c>
       <c r="BN178">
-        <v>37.01657458563536</v>
+        <v>1.933701657458563</v>
       </c>
       <c r="BO178">
-        <v>108.0645161290323</v>
+        <v>-0.8064516129032258</v>
       </c>
     </row>
     <row r="179" spans="1:67">
@@ -39534,10 +39534,10 @@
         <v>10.76233183856502</v>
       </c>
       <c r="BN179">
-        <v>39.77900552486188</v>
+        <v>0</v>
       </c>
       <c r="BO179">
-        <v>116.1290322580645</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:67">
@@ -39737,10 +39737,10 @@
         <v>12.4813153961136</v>
       </c>
       <c r="BN180">
-        <v>46.13259668508287</v>
+        <v>3.314917127071823</v>
       </c>
       <c r="BO180">
-        <v>134.6774193548387</v>
+        <v>1.612903225806452</v>
       </c>
     </row>
     <row r="181" spans="1:67">
@@ -39940,10 +39940,10 @@
         <v>7.548579970104632</v>
       </c>
       <c r="BN181">
-        <v>27.90055248618784</v>
+        <v>1.657458563535912</v>
       </c>
       <c r="BO181">
-        <v>81.45161290322579</v>
+        <v>-4.032258064516129</v>
       </c>
     </row>
     <row r="182" spans="1:67">
@@ -40143,10 +40143,10 @@
         <v>9.118086696562031</v>
       </c>
       <c r="BN182">
-        <v>33.70165745856353</v>
+        <v>7.458563535911603</v>
       </c>
       <c r="BO182">
-        <v>98.38709677419354</v>
+        <v>2.419354838709677</v>
       </c>
     </row>
     <row r="183" spans="1:67">
@@ -40346,10 +40346,10 @@
         <v>10.83707025411061</v>
       </c>
       <c r="BN183">
-        <v>40.05524861878452</v>
+        <v>19.06077348066298</v>
       </c>
       <c r="BO183">
-        <v>116.9354838709677</v>
+        <v>26.61290322580645</v>
       </c>
     </row>
     <row r="184" spans="1:67">
@@ -40549,10 +40549,10 @@
         <v>8.66965620328849</v>
       </c>
       <c r="BN184">
-        <v>32.04419889502762</v>
+        <v>2.486187845303867</v>
       </c>
       <c r="BO184">
-        <v>93.54838709677419</v>
+        <v>-1.612903225806452</v>
       </c>
     </row>
     <row r="185" spans="1:67">
@@ -40752,10 +40752,10 @@
         <v>11.36023916292974</v>
       </c>
       <c r="BN185">
-        <v>41.98895027624309</v>
+        <v>12.98342541436464</v>
       </c>
       <c r="BO185">
-        <v>122.5806451612903</v>
+        <v>8.064516129032258</v>
       </c>
     </row>
     <row r="186" spans="1:67">
@@ -40955,10 +40955,10 @@
         <v>11.80866965620329</v>
       </c>
       <c r="BN186">
-        <v>43.64640883977901</v>
+        <v>13.53591160220994</v>
       </c>
       <c r="BO186">
-        <v>127.4193548387097</v>
+        <v>7.258064516129033</v>
       </c>
     </row>
     <row r="187" spans="1:67">
@@ -41158,10 +41158,10 @@
         <v>11.43497757847534</v>
       </c>
       <c r="BN187">
-        <v>42.26519337016575</v>
+        <v>6.906077348066297</v>
       </c>
       <c r="BO187">
-        <v>123.3870967741936</v>
+        <v>-4.032258064516129</v>
       </c>
     </row>
     <row r="188" spans="1:67">
@@ -41361,10 +41361,10 @@
         <v>11.50971599402093</v>
       </c>
       <c r="BN188">
-        <v>42.54143646408839</v>
+        <v>6.629834254143646</v>
       </c>
       <c r="BO188">
-        <v>124.1935483870968</v>
+        <v>6.451612903225806</v>
       </c>
     </row>
     <row r="189" spans="1:67">
@@ -41564,10 +41564,10 @@
         <v>7.025411061285499</v>
       </c>
       <c r="BN189">
-        <v>25.96685082872928</v>
+        <v>5.524861878453039</v>
       </c>
       <c r="BO189">
-        <v>75.80645161290323</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:67">
@@ -41764,10 +41764,10 @@
         <v>9.641255605381167</v>
       </c>
       <c r="BN190">
-        <v>35.63535911602209</v>
+        <v>2.762430939226519</v>
       </c>
       <c r="BO190">
-        <v>104.0322580645161</v>
+        <v>-3.225806451612903</v>
       </c>
     </row>
     <row r="191" spans="1:67">
@@ -41967,10 +41967,10 @@
         <v>13.00448430493273</v>
       </c>
       <c r="BN191">
-        <v>48.06629834254143</v>
+        <v>6.906077348066297</v>
       </c>
       <c r="BO191">
-        <v>140.3225806451613</v>
+        <v>-0.8064516129032258</v>
       </c>
     </row>
     <row r="192" spans="1:67">
@@ -42170,10 +42170,10 @@
         <v>16.3677130044843</v>
       </c>
       <c r="BN192">
-        <v>60.49723756906077</v>
+        <v>19.06077348066298</v>
       </c>
       <c r="BO192">
-        <v>176.6129032258064</v>
+        <v>31.45161290322581</v>
       </c>
     </row>
     <row r="193" spans="1:67">
@@ -42373,10 +42373,10 @@
         <v>12.92974588938715</v>
       </c>
       <c r="BN193">
-        <v>47.79005524861878</v>
+        <v>14.91712707182321</v>
       </c>
       <c r="BO193">
-        <v>139.5161290322581</v>
+        <v>12.09677419354839</v>
       </c>
     </row>
     <row r="194" spans="1:67">
@@ -42576,10 +42576,10 @@
         <v>5.381165919282511</v>
       </c>
       <c r="BN194">
-        <v>19.88950276243094</v>
+        <v>0</v>
       </c>
       <c r="BO194">
-        <v>58.06451612903226</v>
+        <v>-0.8064516129032258</v>
       </c>
     </row>
     <row r="195" spans="1:67">
@@ -42779,10 +42779,10 @@
         <v>9.192825112107624</v>
       </c>
       <c r="BN195">
-        <v>33.97790055248619</v>
+        <v>1.657458563535912</v>
       </c>
       <c r="BO195">
-        <v>99.19354838709677</v>
+        <v>-1.612903225806452</v>
       </c>
     </row>
     <row r="196" spans="1:67">
@@ -42982,10 +42982,10 @@
         <v>8.445440956651719</v>
       </c>
       <c r="BN196">
-        <v>31.21546961325967</v>
+        <v>7.734806629834252</v>
       </c>
       <c r="BO196">
-        <v>91.12903225806453</v>
+        <v>5.64516129032258</v>
       </c>
     </row>
     <row r="197" spans="1:67">
@@ -43185,10 +43185,10 @@
         <v>8.295964125560538</v>
       </c>
       <c r="BN197">
-        <v>30.66298342541436</v>
+        <v>1.657458563535912</v>
       </c>
       <c r="BO197">
-        <v>89.51612903225806</v>
+        <v>-4.032258064516129</v>
       </c>
     </row>
     <row r="198" spans="1:67">
@@ -43388,10 +43388,10 @@
         <v>12.18236173393124</v>
       </c>
       <c r="BN198">
-        <v>45.02762430939226</v>
+        <v>16.57458563535911</v>
       </c>
       <c r="BO198">
-        <v>131.4516129032258</v>
+        <v>11.29032258064516</v>
       </c>
     </row>
     <row r="199" spans="1:67">
@@ -43591,10 +43591,10 @@
         <v>5.904334828101645</v>
       </c>
       <c r="BN199">
-        <v>21.8232044198895</v>
+        <v>-0.2762430939226519</v>
       </c>
       <c r="BO199">
-        <v>63.70967741935484</v>
+        <v>-0.8064516129032258</v>
       </c>
     </row>
     <row r="200" spans="1:67">
@@ -43791,10 +43791,10 @@
         <v>8.89387144992526</v>
       </c>
       <c r="BN200">
-        <v>32.87292817679558</v>
+        <v>2.486187845303867</v>
       </c>
       <c r="BO200">
-        <v>95.96774193548387</v>
+        <v>-0.8064516129032258</v>
       </c>
     </row>
     <row r="201" spans="1:67">
@@ -43994,10 +43994,10 @@
         <v>7.025411061285499</v>
       </c>
       <c r="BN201">
-        <v>25.96685082872928</v>
+        <v>0</v>
       </c>
       <c r="BO201">
-        <v>75.80645161290323</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:67">
@@ -44194,10 +44194,10 @@
         <v>3.58744394618834</v>
       </c>
       <c r="BN202">
-        <v>13.25966850828729</v>
+        <v>-0.2762430939226519</v>
       </c>
       <c r="BO202">
-        <v>38.70967741935484</v>
+        <v>-0.8064516129032258</v>
       </c>
     </row>
     <row r="203" spans="1:67">
@@ -44397,10 +44397,10 @@
         <v>12.78026905829596</v>
       </c>
       <c r="BN203">
-        <v>47.23756906077348</v>
+        <v>17.67955801104972</v>
       </c>
       <c r="BO203">
-        <v>137.9032258064516</v>
+        <v>11.29032258064516</v>
       </c>
     </row>
     <row r="204" spans="1:67">
@@ -44597,10 +44597,10 @@
         <v>10.38863976083707</v>
       </c>
       <c r="BN204">
-        <v>38.39779005524861</v>
+        <v>1.38121546961326</v>
       </c>
       <c r="BO204">
-        <v>112.0967741935484</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:67">
@@ -44800,10 +44800,10 @@
         <v>10.01494768310912</v>
       </c>
       <c r="BN205">
-        <v>37.01657458563536</v>
+        <v>12.98342541436464</v>
       </c>
       <c r="BO205">
-        <v>108.0645161290323</v>
+        <v>6.451612903225806</v>
       </c>
     </row>
     <row r="206" spans="1:67">
@@ -45003,10 +45003,10 @@
         <v>8.819133034379671</v>
       </c>
       <c r="BN206">
-        <v>32.59668508287293</v>
+        <v>1.933701657458563</v>
       </c>
       <c r="BO206">
-        <v>95.16129032258065</v>
+        <v>0.8064516129032258</v>
       </c>
     </row>
     <row r="207" spans="1:67">
@@ -45206,10 +45206,10 @@
         <v>12.40657698056801</v>
       </c>
       <c r="BN207">
-        <v>45.85635359116022</v>
+        <v>8.287292817679557</v>
       </c>
       <c r="BO207">
-        <v>133.8709677419355</v>
+        <v>-5.64516129032258</v>
       </c>
     </row>
     <row r="208" spans="1:67">
@@ -45409,10 +45409,10 @@
         <v>8.445440956651719</v>
       </c>
       <c r="BN208">
-        <v>31.21546961325967</v>
+        <v>4.696132596685083</v>
       </c>
       <c r="BO208">
-        <v>91.12903225806453</v>
+        <v>4.032258064516129</v>
       </c>
     </row>
     <row r="209" spans="1:67">
@@ -45612,10 +45612,10 @@
         <v>6.427503736920777</v>
       </c>
       <c r="BN209">
-        <v>23.75690607734806</v>
+        <v>6.353591160220994</v>
       </c>
       <c r="BO209">
-        <v>69.35483870967741</v>
+        <v>-1.612903225806452</v>
       </c>
     </row>
     <row r="210" spans="1:67">
@@ -45815,10 +45815,10 @@
         <v>8.819133034379671</v>
       </c>
       <c r="BN210">
-        <v>32.59668508287293</v>
+        <v>8.287292817679557</v>
       </c>
       <c r="BO210">
-        <v>95.16129032258065</v>
+        <v>3.225806451612903</v>
       </c>
     </row>
     <row r="211" spans="1:67">
@@ -46015,10 +46015,10 @@
         <v>4.633781763826607</v>
       </c>
       <c r="BN211">
-        <v>17.12707182320442</v>
+        <v>0.2762430939226519</v>
       </c>
       <c r="BO211">
-        <v>50</v>
+        <v>-0.8064516129032258</v>
       </c>
     </row>
     <row r="212" spans="1:67">
@@ -46218,10 +46218,10 @@
         <v>8.370702541106127</v>
       </c>
       <c r="BN212">
-        <v>30.93922651933701</v>
+        <v>5.248618784530386</v>
       </c>
       <c r="BO212">
-        <v>90.32258064516128</v>
+        <v>-0.8064516129032258</v>
       </c>
     </row>
     <row r="213" spans="1:67">
@@ -46421,10 +46421,10 @@
         <v>13.07922272047833</v>
       </c>
       <c r="BN213">
-        <v>48.34254143646409</v>
+        <v>29.00552486187845</v>
       </c>
       <c r="BO213">
-        <v>141.1290322580645</v>
+        <v>39.51612903225807</v>
       </c>
     </row>
     <row r="214" spans="1:67">
@@ -46624,10 +46624,10 @@
         <v>9.865470852017935</v>
       </c>
       <c r="BN214">
-        <v>36.46408839779005</v>
+        <v>9.116022099447513</v>
       </c>
       <c r="BO214">
-        <v>106.4516129032258</v>
+        <v>8.870967741935484</v>
       </c>
     </row>
     <row r="215" spans="1:67">
@@ -46827,10 +46827,10 @@
         <v>10.76233183856502</v>
       </c>
       <c r="BN215">
-        <v>39.77900552486188</v>
+        <v>11.87845303867403</v>
       </c>
       <c r="BO215">
-        <v>116.1290322580645</v>
+        <v>10.48387096774194</v>
       </c>
     </row>
     <row r="216" spans="1:67">
@@ -47030,10 +47030,10 @@
         <v>15.47085201793722</v>
       </c>
       <c r="BN216">
-        <v>57.18232044198894</v>
+        <v>9.116022099447513</v>
       </c>
       <c r="BO216">
-        <v>166.9354838709677</v>
+        <v>19.35483870967742</v>
       </c>
     </row>
     <row r="217" spans="1:67">
@@ -47233,10 +47233,10 @@
         <v>9.043348281016442</v>
       </c>
       <c r="BN217">
-        <v>33.42541436464088</v>
+        <v>5.248618784530386</v>
       </c>
       <c r="BO217">
-        <v>97.58064516129032</v>
+        <v>-3.225806451612903</v>
       </c>
     </row>
     <row r="218" spans="1:67">
@@ -47436,10 +47436,10 @@
         <v>9.192825112107624</v>
       </c>
       <c r="BN218">
-        <v>33.97790055248619</v>
+        <v>4.972375690607735</v>
       </c>
       <c r="BO218">
-        <v>99.19354838709677</v>
+        <v>-1.612903225806452</v>
       </c>
     </row>
     <row r="219" spans="1:67">
@@ -47639,10 +47639,10 @@
         <v>14.27503736920777</v>
       </c>
       <c r="BN219">
-        <v>52.76243093922653</v>
+        <v>24.58563535911602</v>
       </c>
       <c r="BO219">
-        <v>154.0322580645161</v>
+        <v>43.54838709677419</v>
       </c>
     </row>
     <row r="220" spans="1:67">
@@ -47842,10 +47842,10 @@
         <v>14.050822122571</v>
       </c>
       <c r="BN220">
-        <v>51.93370165745856</v>
+        <v>20.16574585635359</v>
       </c>
       <c r="BO220">
-        <v>151.6129032258065</v>
+        <v>25.80645161290322</v>
       </c>
     </row>
     <row r="221" spans="1:67">
@@ -48045,10 +48045,10 @@
         <v>12.03288490284006</v>
       </c>
       <c r="BN221">
-        <v>44.47513812154696</v>
+        <v>21.2707182320442</v>
       </c>
       <c r="BO221">
-        <v>129.8387096774194</v>
+        <v>21.7741935483871</v>
       </c>
     </row>
     <row r="222" spans="1:67">
@@ -48248,10 +48248,10 @@
         <v>11.13602391629297</v>
       </c>
       <c r="BN222">
-        <v>41.16022099447514</v>
+        <v>3.867403314917126</v>
       </c>
       <c r="BO222">
-        <v>120.1612903225807</v>
+        <v>-3.225806451612903</v>
       </c>
     </row>
     <row r="223" spans="1:67">
@@ -48448,10 +48448,10 @@
         <v>3.961136023916292</v>
       </c>
       <c r="BN223">
-        <v>14.64088397790055</v>
+        <v>-0.2762430939226519</v>
       </c>
       <c r="BO223">
-        <v>42.74193548387096</v>
+        <v>-4.032258064516129</v>
       </c>
     </row>
     <row r="224" spans="1:67">
@@ -48651,10 +48651,10 @@
         <v>10.76233183856502</v>
       </c>
       <c r="BN224">
-        <v>39.77900552486188</v>
+        <v>5.524861878453039</v>
       </c>
       <c r="BO224">
-        <v>116.1290322580645</v>
+        <v>4.838709677419355</v>
       </c>
     </row>
     <row r="225" spans="1:67">
@@ -48854,10 +48854,10 @@
         <v>10.23916292974589</v>
       </c>
       <c r="BN225">
-        <v>37.84530386740331</v>
+        <v>7.18232044198895</v>
       </c>
       <c r="BO225">
-        <v>110.4838709677419</v>
+        <v>9.67741935483871</v>
       </c>
     </row>
     <row r="226" spans="1:67">
@@ -49057,10 +49057,10 @@
         <v>13.37817638266069</v>
       </c>
       <c r="BN226">
-        <v>49.44751381215469</v>
+        <v>17.67955801104972</v>
       </c>
       <c r="BO226">
-        <v>144.3548387096774</v>
+        <v>22.58064516129032</v>
       </c>
     </row>
     <row r="227" spans="1:67">
@@ -49260,10 +49260,10 @@
         <v>10.08968609865471</v>
       </c>
       <c r="BN227">
-        <v>37.29281767955801</v>
+        <v>1.657458563535912</v>
       </c>
       <c r="BO227">
-        <v>108.8709677419355</v>
+        <v>-0.8064516129032258</v>
       </c>
     </row>
     <row r="228" spans="1:67">
@@ -49463,10 +49463,10 @@
         <v>6.352765321375187</v>
       </c>
       <c r="BN228">
-        <v>23.48066298342541</v>
+        <v>0</v>
       </c>
       <c r="BO228">
-        <v>68.54838709677419</v>
+        <v>-4.032258064516129</v>
       </c>
     </row>
     <row r="229" spans="1:67">
@@ -49666,10 +49666,10 @@
         <v>7.473841554559042</v>
       </c>
       <c r="BN229">
-        <v>27.62430939226519</v>
+        <v>0.8287292817679558</v>
       </c>
       <c r="BO229">
-        <v>80.64516129032258</v>
+        <v>-2.419354838709677</v>
       </c>
     </row>
     <row r="230" spans="1:67">
@@ -49869,10 +49869,10 @@
         <v>10.83707025411061</v>
       </c>
       <c r="BN230">
-        <v>40.05524861878452</v>
+        <v>4.696132596685083</v>
       </c>
       <c r="BO230">
-        <v>116.9354838709677</v>
+        <v>0.8064516129032258</v>
       </c>
     </row>
     <row r="231" spans="1:67">
@@ -50072,10 +50072,10 @@
         <v>5.23168908819133</v>
       </c>
       <c r="BN231">
-        <v>19.33701657458563</v>
+        <v>0.2762430939226519</v>
       </c>
       <c r="BO231">
-        <v>56.4516129032258</v>
+        <v>-2.419354838709677</v>
       </c>
     </row>
     <row r="232" spans="1:67">
@@ -50275,10 +50275,10 @@
         <v>13.82660687593423</v>
       </c>
       <c r="BN232">
-        <v>51.10497237569061</v>
+        <v>23.75690607734806</v>
       </c>
       <c r="BO232">
-        <v>149.1935483870968</v>
+        <v>25.80645161290322</v>
       </c>
     </row>
     <row r="233" spans="1:67">
@@ -50478,10 +50478,10 @@
         <v>8.968609865470851</v>
       </c>
       <c r="BN233">
-        <v>33.14917127071823</v>
+        <v>0.5524861878453038</v>
       </c>
       <c r="BO233">
-        <v>96.77419354838709</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:67">
@@ -50678,10 +50678,10 @@
         <v>7.997010463378175</v>
       </c>
       <c r="BN234">
-        <v>29.55801104972375</v>
+        <v>3.867403314917126</v>
       </c>
       <c r="BO234">
-        <v>86.29032258064515</v>
+        <v>-0.8064516129032258</v>
       </c>
     </row>
     <row r="235" spans="1:67">
@@ -50881,10 +50881,10 @@
         <v>5.754857997010463</v>
       </c>
       <c r="BN235">
-        <v>21.2707182320442</v>
+        <v>0.5524861878453038</v>
       </c>
       <c r="BO235">
-        <v>62.09677419354838</v>
+        <v>-6.451612903225806</v>
       </c>
     </row>
     <row r="236" spans="1:67">
@@ -51084,10 +51084,10 @@
         <v>5.829596412556053</v>
       </c>
       <c r="BN236">
-        <v>21.54696132596685</v>
+        <v>0.8287292817679558</v>
       </c>
       <c r="BO236">
-        <v>62.90322580645162</v>
+        <v>-2.419354838709677</v>
       </c>
     </row>
     <row r="237" spans="1:67">
@@ -51287,10 +51287,10 @@
         <v>10.23916292974589</v>
       </c>
       <c r="BN237">
-        <v>37.84530386740331</v>
+        <v>5.524861878453039</v>
       </c>
       <c r="BO237">
-        <v>110.4838709677419</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:67">
@@ -51490,10 +51490,10 @@
         <v>6.726457399103139</v>
       </c>
       <c r="BN238">
-        <v>24.86187845303867</v>
+        <v>1.933701657458563</v>
       </c>
       <c r="BO238">
-        <v>72.58064516129032</v>
+        <v>0.8064516129032258</v>
       </c>
     </row>
     <row r="239" spans="1:67">
@@ -51690,10 +51690,10 @@
         <v>13.22869955156951</v>
       </c>
       <c r="BN239">
-        <v>48.89502762430939</v>
+        <v>15.4696132596685</v>
       </c>
       <c r="BO239">
-        <v>142.7419354838709</v>
+        <v>12.09677419354839</v>
       </c>
     </row>
     <row r="240" spans="1:67">
@@ -51893,10 +51893,10 @@
         <v>2.316890881913304</v>
       </c>
       <c r="BN240">
-        <v>8.563535911602209</v>
+        <v>-0.2762430939226519</v>
       </c>
       <c r="BO240">
-        <v>25</v>
+        <v>-1.612903225806452</v>
       </c>
     </row>
     <row r="241" spans="1:67">
@@ -52096,10 +52096,10 @@
         <v>9.491778774289985</v>
       </c>
       <c r="BN241">
-        <v>35.08287292817679</v>
+        <v>5.248618784530386</v>
       </c>
       <c r="BO241">
-        <v>102.4193548387097</v>
+        <v>3.225806451612903</v>
       </c>
     </row>
     <row r="242" spans="1:67">
@@ -52299,10 +52299,10 @@
         <v>10.68759342301943</v>
       </c>
       <c r="BN242">
-        <v>39.50276243093923</v>
+        <v>9.116022099447513</v>
       </c>
       <c r="BO242">
-        <v>115.3225806451613</v>
+        <v>4.838709677419355</v>
       </c>
     </row>
     <row r="243" spans="1:67">
@@ -52502,10 +52502,10 @@
         <v>14.050822122571</v>
       </c>
       <c r="BN243">
-        <v>51.93370165745856</v>
+        <v>15.74585635359116</v>
       </c>
       <c r="BO243">
-        <v>151.6129032258065</v>
+        <v>2.419354838709677</v>
       </c>
     </row>
     <row r="244" spans="1:67">
@@ -52705,10 +52705,10 @@
         <v>7.698056801195814</v>
       </c>
       <c r="BN244">
-        <v>28.45303867403315</v>
+        <v>5.801104972375691</v>
       </c>
       <c r="BO244">
-        <v>83.06451612903226</v>
+        <v>5.64516129032258</v>
       </c>
     </row>
     <row r="245" spans="1:67">
@@ -52908,10 +52908,10 @@
         <v>15.76980568011958</v>
       </c>
       <c r="BN245">
-        <v>58.28729281767956</v>
+        <v>27.07182320441989</v>
       </c>
       <c r="BO245">
-        <v>170.1612903225806</v>
+        <v>35.48387096774194</v>
       </c>
     </row>
     <row r="246" spans="1:67">
@@ -53111,10 +53111,10 @@
         <v>8.744394618834079</v>
       </c>
       <c r="BN246">
-        <v>32.32044198895027</v>
+        <v>2.209944751381215</v>
       </c>
       <c r="BO246">
-        <v>94.35483870967741</v>
+        <v>0.8064516129032258</v>
       </c>
     </row>
     <row r="247" spans="1:67">
@@ -53314,10 +53314,10 @@
         <v>13.52765321375187</v>
       </c>
       <c r="BN247">
-        <v>50</v>
+        <v>19.61325966850828</v>
       </c>
       <c r="BO247">
-        <v>145.9677419354839</v>
+        <v>17.74193548387097</v>
       </c>
     </row>
     <row r="248" spans="1:67">
@@ -53517,10 +53517,10 @@
         <v>14.7982062780269</v>
       </c>
       <c r="BN248">
-        <v>54.69613259668508</v>
+        <v>27.07182320441989</v>
       </c>
       <c r="BO248">
-        <v>159.6774193548387</v>
+        <v>29.03225806451613</v>
       </c>
     </row>
     <row r="249" spans="1:67">
@@ -53717,10 +53717,10 @@
         <v>6.95067264573991</v>
       </c>
       <c r="BN249">
-        <v>25.69060773480663</v>
+        <v>0.8287292817679558</v>
       </c>
       <c r="BO249">
-        <v>75</v>
+        <v>-2.419354838709677</v>
       </c>
     </row>
     <row r="250" spans="1:67">
@@ -53920,10 +53920,10 @@
         <v>5.754857997010463</v>
       </c>
       <c r="BN250">
-        <v>21.2707182320442</v>
+        <v>0.5524861878453038</v>
       </c>
       <c r="BO250">
-        <v>62.09677419354838</v>
+        <v>-0.8064516129032258</v>
       </c>
     </row>
     <row r="251" spans="1:67">
@@ -54123,10 +54123,10 @@
         <v>14.34977578475336</v>
       </c>
       <c r="BN251">
-        <v>53.03867403314917</v>
+        <v>13.81215469613259</v>
       </c>
       <c r="BO251">
-        <v>154.8387096774194</v>
+        <v>13.70967741935484</v>
       </c>
     </row>
     <row r="252" spans="1:67">
@@ -54326,10 +54326,10 @@
         <v>-8.370702541106127</v>
       </c>
       <c r="BN252">
-        <v>-30.93922651933701</v>
+        <v>-0.5524861878453038</v>
       </c>
       <c r="BO252">
-        <v>-90.32258064516128</v>
+        <v>-0.8064516129032258</v>
       </c>
     </row>
     <row r="253" spans="1:67">
@@ -54529,10 +54529,10 @@
         <v>10.83707025411061</v>
       </c>
       <c r="BN253">
-        <v>40.05524861878452</v>
+        <v>13.53591160220994</v>
       </c>
       <c r="BO253">
-        <v>116.9354838709677</v>
+        <v>14.51612903225807</v>
       </c>
     </row>
     <row r="254" spans="1:67">
@@ -54732,10 +54732,10 @@
         <v>12.63079222720478</v>
       </c>
       <c r="BN254">
-        <v>46.68508287292817</v>
+        <v>9.392265193370166</v>
       </c>
       <c r="BO254">
-        <v>136.2903225806452</v>
+        <v>7.258064516129033</v>
       </c>
     </row>
     <row r="255" spans="1:67">
@@ -54935,10 +54935,10 @@
         <v>9.641255605381167</v>
       </c>
       <c r="BN255">
-        <v>35.63535911602209</v>
+        <v>17.67955801104972</v>
       </c>
       <c r="BO255">
-        <v>104.0322580645161</v>
+        <v>14.51612903225807</v>
       </c>
     </row>
     <row r="256" spans="1:67">
@@ -55138,10 +55138,10 @@
         <v>10.01494768310912</v>
       </c>
       <c r="BN256">
-        <v>37.01657458563536</v>
+        <v>12.98342541436464</v>
       </c>
       <c r="BO256">
-        <v>108.0645161290323</v>
+        <v>2.419354838709677</v>
       </c>
     </row>
     <row r="257" spans="1:67">
@@ -55341,10 +55341,10 @@
         <v>8.520179372197308</v>
       </c>
       <c r="BN257">
-        <v>31.49171270718232</v>
+        <v>4.143646408839778</v>
       </c>
       <c r="BO257">
-        <v>91.93548387096774</v>
+        <v>-8.064516129032258</v>
       </c>
     </row>
     <row r="258" spans="1:67">
@@ -55544,10 +55544,10 @@
         <v>8.594917787742899</v>
       </c>
       <c r="BN258">
-        <v>31.76795580110497</v>
+        <v>4.972375690607735</v>
       </c>
       <c r="BO258">
-        <v>92.74193548387096</v>
+        <v>1.612903225806452</v>
       </c>
     </row>
     <row r="259" spans="1:67">
@@ -55744,10 +55744,10 @@
         <v>7.623318385650222</v>
       </c>
       <c r="BN259">
-        <v>28.17679558011049</v>
+        <v>0</v>
       </c>
       <c r="BO259">
-        <v>82.25806451612902</v>
+        <v>-0.8064516129032258</v>
       </c>
     </row>
     <row r="260" spans="1:67">
@@ -55947,10 +55947,10 @@
         <v>7.324364723467862</v>
       </c>
       <c r="BN260">
-        <v>27.07182320441989</v>
+        <v>0.2762430939226519</v>
       </c>
       <c r="BO260">
-        <v>79.03225806451614</v>
+        <v>-0.8064516129032258</v>
       </c>
     </row>
     <row r="261" spans="1:67">
@@ -56147,10 +56147,10 @@
         <v>7.10014947683109</v>
       </c>
       <c r="BN261">
-        <v>26.24309392265193</v>
+        <v>0.2762430939226519</v>
       </c>
       <c r="BO261">
-        <v>76.61290322580645</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262" spans="1:67">
@@ -56347,10 +56347,10 @@
         <v>15.69506726457399</v>
       </c>
       <c r="BN262">
-        <v>58.0110497237569</v>
+        <v>2.209944751381215</v>
       </c>
       <c r="BO262">
-        <v>169.3548387096774</v>
+        <v>1.612903225806452</v>
       </c>
     </row>
     <row r="263" spans="1:67">
@@ -56550,10 +56550,10 @@
         <v>18.7593423019432</v>
       </c>
       <c r="BN263">
-        <v>69.33701657458563</v>
+        <v>31.76795580110497</v>
       </c>
       <c r="BO263">
-        <v>202.4193548387097</v>
+        <v>47.58064516129033</v>
       </c>
     </row>
     <row r="264" spans="1:67">
@@ -56753,10 +56753,10 @@
         <v>10.31390134529148</v>
       </c>
       <c r="BN264">
-        <v>38.12154696132596</v>
+        <v>14.08839779005525</v>
       </c>
       <c r="BO264">
-        <v>111.2903225806452</v>
+        <v>3.225806451612903</v>
       </c>
     </row>
     <row r="265" spans="1:67">
@@ -56956,10 +56956,10 @@
         <v>6.576980568011958</v>
       </c>
       <c r="BN265">
-        <v>24.30939226519337</v>
+        <v>4.41988950276243</v>
       </c>
       <c r="BO265">
-        <v>70.96774193548387</v>
+        <v>4.032258064516129</v>
       </c>
     </row>
     <row r="266" spans="1:67">
@@ -57159,10 +57159,10 @@
         <v>11.80866965620329</v>
       </c>
       <c r="BN266">
-        <v>43.64640883977901</v>
+        <v>10.77348066298342</v>
       </c>
       <c r="BO266">
-        <v>127.4193548387097</v>
+        <v>10.48387096774194</v>
       </c>
     </row>
     <row r="267" spans="1:67">
@@ -57362,10 +57362,10 @@
         <v>11.65919282511211</v>
       </c>
       <c r="BN267">
-        <v>43.0939226519337</v>
+        <v>4.972375690607735</v>
       </c>
       <c r="BO267">
-        <v>125.8064516129032</v>
+        <v>1.612903225806452</v>
       </c>
     </row>
     <row r="268" spans="1:67">
@@ -57565,10 +57565,10 @@
         <v>7.623318385650222</v>
       </c>
       <c r="BN268">
-        <v>28.17679558011049</v>
+        <v>-3.038674033149171</v>
       </c>
       <c r="BO268">
-        <v>82.25806451612902</v>
+        <v>-10.48387096774194</v>
       </c>
     </row>
     <row r="269" spans="1:67">
@@ -57768,10 +57768,10 @@
         <v>7.473841554559042</v>
       </c>
       <c r="BN269">
-        <v>27.62430939226519</v>
+        <v>1.933701657458563</v>
       </c>
       <c r="BO269">
-        <v>80.64516129032258</v>
+        <v>-13.70967741935484</v>
       </c>
     </row>
     <row r="270" spans="1:67">
@@ -57971,10 +57971,10 @@
         <v>10.76233183856502</v>
       </c>
       <c r="BN270">
-        <v>39.77900552486188</v>
+        <v>9.392265193370166</v>
       </c>
       <c r="BO270">
-        <v>116.1290322580645</v>
+        <v>11.29032258064516</v>
       </c>
     </row>
     <row r="271" spans="1:67">
@@ -58174,10 +58174,10 @@
         <v>16.29297458893871</v>
       </c>
       <c r="BN271">
-        <v>60.22099447513812</v>
+        <v>28.45303867403315</v>
       </c>
       <c r="BO271">
-        <v>175.8064516129032</v>
+        <v>33.06451612903226</v>
       </c>
     </row>
     <row r="272" spans="1:67">
@@ -58377,10 +58377,10 @@
         <v>15.02242152466368</v>
       </c>
       <c r="BN272">
-        <v>55.52486187845304</v>
+        <v>22.92817679558011</v>
       </c>
       <c r="BO272">
-        <v>162.0967741935484</v>
+        <v>22.58064516129032</v>
       </c>
     </row>
     <row r="273" spans="1:67">
@@ -58580,10 +58580,10 @@
         <v>11.21076233183856</v>
       </c>
       <c r="BN273">
-        <v>41.43646408839778</v>
+        <v>12.43093922651934</v>
       </c>
       <c r="BO273">
-        <v>120.9677419354839</v>
+        <v>9.67741935483871</v>
       </c>
     </row>
     <row r="274" spans="1:67">
@@ -58783,10 +58783,10 @@
         <v>12.33183856502242</v>
       </c>
       <c r="BN274">
-        <v>45.58011049723756</v>
+        <v>26.24309392265193</v>
       </c>
       <c r="BO274">
-        <v>133.0645161290323</v>
+        <v>29.03225806451613</v>
       </c>
     </row>
     <row r="275" spans="1:67">
@@ -58986,10 +58986,10 @@
         <v>9.192825112107624</v>
       </c>
       <c r="BN275">
-        <v>33.97790055248619</v>
+        <v>5.248618784530386</v>
       </c>
       <c r="BO275">
-        <v>99.19354838709677</v>
+        <v>-1.612903225806452</v>
       </c>
     </row>
     <row r="276" spans="1:67">
@@ -59189,10 +59189,10 @@
         <v>7.025411061285499</v>
       </c>
       <c r="BN276">
-        <v>25.96685082872928</v>
+        <v>2.486187845303867</v>
       </c>
       <c r="BO276">
-        <v>75.80645161290323</v>
+        <v>-4.032258064516129</v>
       </c>
     </row>
     <row r="277" spans="1:67">
@@ -59392,10 +59392,10 @@
         <v>12.4813153961136</v>
       </c>
       <c r="BN277">
-        <v>46.13259668508287</v>
+        <v>15.74585635359116</v>
       </c>
       <c r="BO277">
-        <v>134.6774193548387</v>
+        <v>16.93548387096774</v>
       </c>
     </row>
     <row r="278" spans="1:67">
@@ -59595,10 +59595,10 @@
         <v>10.46337817638266</v>
       </c>
       <c r="BN278">
-        <v>38.67403314917127</v>
+        <v>9.116022099447513</v>
       </c>
       <c r="BO278">
-        <v>112.9032258064516</v>
+        <v>-8.870967741935484</v>
       </c>
     </row>
     <row r="279" spans="1:67">
@@ -59792,10 +59792,10 @@
         <v>4.409566517189836</v>
       </c>
       <c r="BN279">
-        <v>16.29834254143647</v>
+        <v>-0.2762430939226519</v>
       </c>
       <c r="BO279">
-        <v>47.58064516129033</v>
+        <v>-0.8064516129032258</v>
       </c>
     </row>
     <row r="280" spans="1:67">
@@ -59995,10 +59995,10 @@
         <v>4.334828101644245</v>
       </c>
       <c r="BN280">
-        <v>16.02209944751381</v>
+        <v>0.5524861878453038</v>
       </c>
       <c r="BO280">
-        <v>46.7741935483871</v>
+        <v>-4.838709677419355</v>
       </c>
     </row>
     <row r="281" spans="1:67">
@@ -60198,10 +60198,10 @@
         <v>11.13602391629297</v>
       </c>
       <c r="BN281">
-        <v>41.16022099447514</v>
+        <v>1.657458563535912</v>
       </c>
       <c r="BO281">
-        <v>120.1612903225807</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282" spans="1:67">
@@ -60401,10 +60401,10 @@
         <v>7.10014947683109</v>
       </c>
       <c r="BN282">
-        <v>26.24309392265193</v>
+        <v>0.5524861878453038</v>
       </c>
       <c r="BO282">
-        <v>76.61290322580645</v>
+        <v>-3.225806451612903</v>
       </c>
     </row>
     <row r="283" spans="1:67">
@@ -60604,10 +60604,10 @@
         <v>6.278026905829597</v>
       </c>
       <c r="BN283">
-        <v>23.20441988950276</v>
+        <v>1.38121546961326</v>
       </c>
       <c r="BO283">
-        <v>67.74193548387098</v>
+        <v>-8.870967741935484</v>
       </c>
     </row>
     <row r="284" spans="1:67">
@@ -60807,10 +60807,10 @@
         <v>14.12556053811659</v>
       </c>
       <c r="BN284">
-        <v>52.20994475138121</v>
+        <v>20.44198895027624</v>
       </c>
       <c r="BO284">
-        <v>152.4193548387097</v>
+        <v>15.32258064516129</v>
       </c>
     </row>
     <row r="285" spans="1:67">
@@ -61010,10 +61010,10 @@
         <v>7.698056801195814</v>
       </c>
       <c r="BN285">
-        <v>28.45303867403315</v>
+        <v>3.867403314917126</v>
       </c>
       <c r="BO285">
-        <v>83.06451612903226</v>
+        <v>-6.451612903225806</v>
       </c>
     </row>
     <row r="286" spans="1:67">
@@ -61213,10 +61213,10 @@
         <v>12.4813153961136</v>
       </c>
       <c r="BN286">
-        <v>46.13259668508287</v>
+        <v>11.32596685082873</v>
       </c>
       <c r="BO286">
-        <v>134.6774193548387</v>
+        <v>8.870967741935484</v>
       </c>
     </row>
     <row r="287" spans="1:67">
@@ -61416,10 +61416,10 @@
         <v>10.1644245142003</v>
       </c>
       <c r="BN287">
-        <v>37.56906077348066</v>
+        <v>2.209944751381215</v>
       </c>
       <c r="BO287">
-        <v>109.6774193548387</v>
+        <v>-0.8064516129032258</v>
       </c>
     </row>
     <row r="288" spans="1:67">
@@ -61616,10 +61616,10 @@
         <v>11.95814648729447</v>
       </c>
       <c r="BN288">
-        <v>44.19889502762431</v>
+        <v>26.51933701657459</v>
       </c>
       <c r="BO288">
-        <v>129.0322580645161</v>
+        <v>20.16129032258064</v>
       </c>
     </row>
     <row r="289" spans="1:67">
@@ -61816,10 +61816,10 @@
         <v>15.39611360239163</v>
       </c>
       <c r="BN289">
-        <v>56.9060773480663</v>
+        <v>0.8287292817679558</v>
       </c>
       <c r="BO289">
-        <v>166.1290322580645</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:67">
@@ -62019,10 +62019,10 @@
         <v>10.76233183856502</v>
       </c>
       <c r="BN290">
-        <v>39.77900552486188</v>
+        <v>9.668508287292816</v>
       </c>
       <c r="BO290">
-        <v>116.1290322580645</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291" spans="1:67">
@@ -62222,10 +62222,10 @@
         <v>11.06128550074738</v>
       </c>
       <c r="BN291">
-        <v>40.88397790055249</v>
+        <v>11.04972375690608</v>
       </c>
       <c r="BO291">
-        <v>119.3548387096774</v>
+        <v>8.870967741935484</v>
       </c>
     </row>
     <row r="292" spans="1:67">
@@ -62425,10 +62425,10 @@
         <v>15.47085201793722</v>
       </c>
       <c r="BN292">
-        <v>57.18232044198894</v>
+        <v>27.34806629834254</v>
       </c>
       <c r="BO292">
-        <v>166.9354838709677</v>
+        <v>25</v>
       </c>
     </row>
     <row r="293" spans="1:67">
@@ -62628,10 +62628,10 @@
         <v>9.790732436472346</v>
       </c>
       <c r="BN293">
-        <v>36.1878453038674</v>
+        <v>8.011049723756905</v>
       </c>
       <c r="BO293">
-        <v>105.6451612903226</v>
+        <v>7.258064516129033</v>
       </c>
     </row>
     <row r="294" spans="1:67">
@@ -62831,10 +62831,10 @@
         <v>9.641255605381167</v>
       </c>
       <c r="BN294">
-        <v>35.63535911602209</v>
+        <v>11.32596685082873</v>
       </c>
       <c r="BO294">
-        <v>104.0322580645161</v>
+        <v>8.870967741935484</v>
       </c>
     </row>
     <row r="295" spans="1:67">
@@ -63034,10 +63034,10 @@
         <v>8.594917787742899</v>
       </c>
       <c r="BN295">
-        <v>31.76795580110497</v>
+        <v>6.353591160220994</v>
       </c>
       <c r="BO295">
-        <v>92.74193548387096</v>
+        <v>4.838709677419355</v>
       </c>
     </row>
     <row r="296" spans="1:67">
@@ -63237,10 +63237,10 @@
         <v>6.203288490284006</v>
       </c>
       <c r="BN296">
-        <v>22.92817679558011</v>
+        <v>2.486187845303867</v>
       </c>
       <c r="BO296">
-        <v>66.93548387096774</v>
+        <v>0.8064516129032258</v>
       </c>
     </row>
     <row r="297" spans="1:67">
@@ -63440,10 +63440,10 @@
         <v>9.790732436472346</v>
       </c>
       <c r="BN297">
-        <v>36.1878453038674</v>
+        <v>4.972375690607735</v>
       </c>
       <c r="BO297">
-        <v>105.6451612903226</v>
+        <v>-0.8064516129032258</v>
       </c>
     </row>
     <row r="298" spans="1:67">
@@ -63643,10 +63643,10 @@
         <v>18.0119581464873</v>
       </c>
       <c r="BN298">
-        <v>66.57458563535911</v>
+        <v>37.01657458563536</v>
       </c>
       <c r="BO298">
-        <v>194.3548387096774</v>
+        <v>38.70967741935484</v>
       </c>
     </row>
     <row r="299" spans="1:67">
@@ -63846,10 +63846,10 @@
         <v>13.52765321375187</v>
       </c>
       <c r="BN299">
-        <v>50</v>
+        <v>17.67955801104972</v>
       </c>
       <c r="BO299">
-        <v>145.9677419354839</v>
+        <v>12.09677419354839</v>
       </c>
     </row>
     <row r="300" spans="1:67">
@@ -64049,10 +64049,10 @@
         <v>22.19730941704035</v>
       </c>
       <c r="BN300">
-        <v>82.04419889502762</v>
+        <v>36.46408839779005</v>
       </c>
       <c r="BO300">
-        <v>239.516129032258</v>
+        <v>44.35483870967742</v>
       </c>
     </row>
     <row r="301" spans="1:67">
@@ -64252,10 +64252,10 @@
         <v>4.932735426008968</v>
       </c>
       <c r="BN301">
-        <v>18.23204419889503</v>
+        <v>-1.38121546961326</v>
       </c>
       <c r="BO301">
-        <v>53.2258064516129</v>
+        <v>-4.838709677419355</v>
       </c>
     </row>
     <row r="302" spans="1:67">
@@ -64455,10 +64455,10 @@
         <v>10.23916292974589</v>
       </c>
       <c r="BN302">
-        <v>37.84530386740331</v>
+        <v>1.933701657458563</v>
       </c>
       <c r="BO302">
-        <v>110.4838709677419</v>
+        <v>4.838709677419355</v>
       </c>
     </row>
     <row r="303" spans="1:67">
@@ -64658,10 +64658,10 @@
         <v>10.76233183856502</v>
       </c>
       <c r="BN303">
-        <v>39.77900552486188</v>
+        <v>5.801104972375691</v>
       </c>
       <c r="BO303">
-        <v>116.1290322580645</v>
+        <v>5.64516129032258</v>
       </c>
     </row>
     <row r="304" spans="1:67">
@@ -64861,10 +64861,10 @@
         <v>4.484304932735426</v>
       </c>
       <c r="BN304">
-        <v>16.57458563535911</v>
+        <v>-0.2762430939226519</v>
       </c>
       <c r="BO304">
-        <v>48.38709677419354</v>
+        <v>-2.419354838709677</v>
       </c>
     </row>
     <row r="305" spans="1:67">
@@ -65064,10 +65064,10 @@
         <v>9.192825112107624</v>
       </c>
       <c r="BN305">
-        <v>33.97790055248619</v>
+        <v>6.629834254143646</v>
       </c>
       <c r="BO305">
-        <v>99.19354838709677</v>
+        <v>-5.64516129032258</v>
       </c>
     </row>
     <row r="306" spans="1:67">
@@ -65264,10 +65264,10 @@
         <v>9.267563527653214</v>
       </c>
       <c r="BN306">
-        <v>34.25414364640883</v>
+        <v>4.41988950276243</v>
       </c>
       <c r="BO306">
-        <v>100</v>
+        <v>-5.64516129032258</v>
       </c>
     </row>
     <row r="307" spans="1:67">
@@ -65464,10 +65464,10 @@
         <v>9.491778774289985</v>
       </c>
       <c r="BN307">
-        <v>35.08287292817679</v>
+        <v>5.801104972375691</v>
       </c>
       <c r="BO307">
-        <v>102.4193548387097</v>
+        <v>5.64516129032258</v>
       </c>
     </row>
     <row r="308" spans="1:67">
@@ -65667,10 +65667,10 @@
         <v>8.520179372197308</v>
       </c>
       <c r="BN308">
-        <v>31.49171270718232</v>
+        <v>9.668508287292816</v>
       </c>
       <c r="BO308">
-        <v>91.93548387096774</v>
+        <v>14.51612903225807</v>
       </c>
     </row>
     <row r="309" spans="1:67">
@@ -65870,10 +65870,10 @@
         <v>3.58744394618834</v>
       </c>
       <c r="BN309">
-        <v>13.25966850828729</v>
+        <v>-0.5524861878453038</v>
       </c>
       <c r="BO309">
-        <v>38.70967741935484</v>
+        <v>-1.612903225806452</v>
       </c>
     </row>
     <row r="310" spans="1:67">
@@ -66070,10 +66070,10 @@
         <v>8.370702541106127</v>
       </c>
       <c r="BN310">
-        <v>30.93922651933701</v>
+        <v>1.104972375690608</v>
       </c>
       <c r="BO310">
-        <v>90.32258064516128</v>
+        <v>-1.612903225806452</v>
       </c>
     </row>
     <row r="311" spans="1:67">
@@ -66273,10 +66273,10 @@
         <v>6.801195814648729</v>
       </c>
       <c r="BN311">
-        <v>25.13812154696132</v>
+        <v>0.2762430939226519</v>
       </c>
       <c r="BO311">
-        <v>73.38709677419354</v>
+        <v>-1.612903225806452</v>
       </c>
     </row>
     <row r="312" spans="1:67">
@@ -66476,10 +66476,10 @@
         <v>11.50971599402093</v>
       </c>
       <c r="BN312">
-        <v>42.54143646408839</v>
+        <v>9.668508287292816</v>
       </c>
       <c r="BO312">
-        <v>124.1935483870968</v>
+        <v>8.064516129032258</v>
       </c>
     </row>
     <row r="313" spans="1:67">
@@ -66679,10 +66679,10 @@
         <v>7.24962630792227</v>
       </c>
       <c r="BN313">
-        <v>26.79558011049724</v>
+        <v>2.209944751381215</v>
       </c>
       <c r="BO313">
-        <v>78.2258064516129</v>
+        <v>-4.032258064516129</v>
       </c>
     </row>
     <row r="314" spans="1:67">
@@ -66882,10 +66882,10 @@
         <v>8.744394618834079</v>
       </c>
       <c r="BN314">
-        <v>32.32044198895027</v>
+        <v>10.49723756906077</v>
       </c>
       <c r="BO314">
-        <v>94.35483870967741</v>
+        <v>7.258064516129033</v>
       </c>
     </row>
     <row r="315" spans="1:67">
@@ -67082,10 +67082,10 @@
         <v>5.680119581464872</v>
       </c>
       <c r="BN315">
-        <v>20.99447513812154</v>
+        <v>0</v>
       </c>
       <c r="BO315">
-        <v>61.29032258064515</v>
+        <v>-1.612903225806452</v>
       </c>
     </row>
     <row r="316" spans="1:67">
@@ -67285,10 +67285,10 @@
         <v>14.050822122571</v>
       </c>
       <c r="BN316">
-        <v>51.93370165745856</v>
+        <v>15.4696132596685</v>
       </c>
       <c r="BO316">
-        <v>151.6129032258065</v>
+        <v>13.70967741935484</v>
       </c>
     </row>
     <row r="317" spans="1:67">
@@ -67488,10 +67488,10 @@
         <v>17.11509715994021</v>
       </c>
       <c r="BN317">
-        <v>63.25966850828728</v>
+        <v>34.80662983425414</v>
       </c>
       <c r="BO317">
-        <v>184.6774193548387</v>
+        <v>44.35483870967742</v>
       </c>
     </row>
     <row r="318" spans="1:67">
@@ -67691,10 +67691,10 @@
         <v>9.118086696562031</v>
       </c>
       <c r="BN318">
-        <v>33.70165745856353</v>
+        <v>10.49723756906077</v>
       </c>
       <c r="BO318">
-        <v>98.38709677419354</v>
+        <v>7.258064516129033</v>
       </c>
     </row>
     <row r="319" spans="1:67">
@@ -67891,10 +67891,10 @@
         <v>23.3931240657698</v>
       </c>
       <c r="BN319">
-        <v>86.46408839779005</v>
+        <v>0.2762430939226519</v>
       </c>
       <c r="BO319">
-        <v>252.4193548387097</v>
+        <v>0</v>
       </c>
     </row>
     <row r="320" spans="1:67">
@@ -68091,10 +68091,10 @@
         <v>3.961136023916292</v>
       </c>
       <c r="BN320">
-        <v>14.64088397790055</v>
+        <v>-0.2762430939226519</v>
       </c>
       <c r="BO320">
-        <v>42.74193548387096</v>
+        <v>-0.8064516129032258</v>
       </c>
     </row>
     <row r="321" spans="1:67">
@@ -68294,10 +68294,10 @@
         <v>12.18236173393124</v>
       </c>
       <c r="BN321">
-        <v>45.02762430939226</v>
+        <v>19.06077348066298</v>
       </c>
       <c r="BO321">
-        <v>131.4516129032258</v>
+        <v>21.7741935483871</v>
       </c>
     </row>
     <row r="322" spans="1:67">
@@ -68497,10 +68497,10 @@
         <v>11.43497757847534</v>
       </c>
       <c r="BN322">
-        <v>42.26519337016575</v>
+        <v>13.53591160220994</v>
       </c>
       <c r="BO322">
-        <v>123.3870967741936</v>
+        <v>12.90322580645161</v>
       </c>
     </row>
     <row r="323" spans="1:67">
@@ -68700,10 +68700,10 @@
         <v>10.31390134529148</v>
       </c>
       <c r="BN323">
-        <v>38.12154696132596</v>
+        <v>12.43093922651934</v>
       </c>
       <c r="BO323">
-        <v>111.2903225806452</v>
+        <v>10.48387096774194</v>
       </c>
     </row>
     <row r="324" spans="1:67">
@@ -68903,10 +68903,10 @@
         <v>16.66666666666666</v>
       </c>
       <c r="BN324">
-        <v>61.60220994475137</v>
+        <v>35.63535911602209</v>
       </c>
       <c r="BO324">
-        <v>179.8387096774194</v>
+        <v>45.96774193548387</v>
       </c>
     </row>
     <row r="325" spans="1:67">
@@ -69106,10 +69106,10 @@
         <v>11.13602391629297</v>
       </c>
       <c r="BN325">
-        <v>41.16022099447514</v>
+        <v>10.22099447513812</v>
       </c>
       <c r="BO325">
-        <v>120.1612903225807</v>
+        <v>16.93548387096774</v>
       </c>
     </row>
     <row r="326" spans="1:67">
@@ -69306,10 +69306,10 @@
         <v>11.21076233183856</v>
       </c>
       <c r="BN326">
-        <v>41.43646408839778</v>
+        <v>18.78453038674033</v>
       </c>
       <c r="BO326">
-        <v>120.9677419354839</v>
+        <v>15.32258064516129</v>
       </c>
     </row>
     <row r="327" spans="1:67">
@@ -69509,10 +69509,10 @@
         <v>5.455904334828101</v>
       </c>
       <c r="BN327">
-        <v>20.16574585635359</v>
+        <v>0.2762430939226519</v>
       </c>
       <c r="BO327">
-        <v>58.87096774193547</v>
+        <v>-2.419354838709677</v>
       </c>
     </row>
     <row r="328" spans="1:67">
@@ -69712,10 +69712,10 @@
         <v>10.38863976083707</v>
       </c>
       <c r="BN328">
-        <v>38.39779005524861</v>
+        <v>9.668508287292816</v>
       </c>
       <c r="BO328">
-        <v>112.0967741935484</v>
+        <v>7.258064516129033</v>
       </c>
     </row>
     <row r="329" spans="1:67">
@@ -69915,10 +69915,10 @@
         <v>9.641255605381167</v>
       </c>
       <c r="BN329">
-        <v>35.63535911602209</v>
+        <v>7.458563535911603</v>
       </c>
       <c r="BO329">
-        <v>104.0322580645161</v>
+        <v>12.09677419354839</v>
       </c>
     </row>
     <row r="330" spans="1:67">
@@ -70118,10 +70118,10 @@
         <v>8.221225710014947</v>
       </c>
       <c r="BN330">
-        <v>30.38674033149171</v>
+        <v>-0.2762430939226519</v>
       </c>
       <c r="BO330">
-        <v>88.70967741935483</v>
+        <v>-2.419354838709677</v>
       </c>
     </row>
     <row r="331" spans="1:67">
@@ -70318,10 +70318,10 @@
         <v>8.520179372197308</v>
       </c>
       <c r="BN331">
-        <v>31.49171270718232</v>
+        <v>8.563535911602209</v>
       </c>
       <c r="BO331">
-        <v>91.93548387096774</v>
+        <v>-3.225806451612903</v>
       </c>
     </row>
     <row r="332" spans="1:67">
@@ -70521,10 +70521,10 @@
         <v>4.932735426008968</v>
       </c>
       <c r="BN332">
-        <v>18.23204419889503</v>
+        <v>0</v>
       </c>
       <c r="BO332">
-        <v>53.2258064516129</v>
+        <v>-0.8064516129032258</v>
       </c>
     </row>
     <row r="333" spans="1:67">
@@ -70724,10 +70724,10 @@
         <v>7.623318385650222</v>
       </c>
       <c r="BN333">
-        <v>28.17679558011049</v>
+        <v>5.248618784530386</v>
       </c>
       <c r="BO333">
-        <v>82.25806451612902</v>
+        <v>1.612903225806452</v>
       </c>
     </row>
     <row r="334" spans="1:67">
@@ -70927,10 +70927,10 @@
         <v>9.491778774289985</v>
       </c>
       <c r="BN334">
-        <v>35.08287292817679</v>
+        <v>5.801104972375691</v>
       </c>
       <c r="BO334">
-        <v>102.4193548387097</v>
+        <v>4.838709677419355</v>
       </c>
     </row>
     <row r="335" spans="1:67">
@@ -71127,10 +71127,10 @@
         <v>12.63079222720478</v>
       </c>
       <c r="BN335">
-        <v>46.68508287292817</v>
+        <v>1.38121546961326</v>
       </c>
       <c r="BO335">
-        <v>136.2903225806452</v>
+        <v>-0.8064516129032258</v>
       </c>
     </row>
     <row r="336" spans="1:67">
@@ -71327,10 +71327,10 @@
         <v>8.295964125560538</v>
       </c>
       <c r="BN336">
-        <v>30.66298342541436</v>
+        <v>0</v>
       </c>
       <c r="BO336">
-        <v>89.51612903225806</v>
+        <v>-0.8064516129032258</v>
       </c>
     </row>
     <row r="337" spans="1:67">
@@ -71527,10 +71527,10 @@
         <v>12.10762331838565</v>
       </c>
       <c r="BN337">
-        <v>44.75138121546961</v>
+        <v>9.116022099447513</v>
       </c>
       <c r="BO337">
-        <v>130.6451612903226</v>
+        <v>0</v>
       </c>
     </row>
     <row r="338" spans="1:67">
@@ -71730,10 +71730,10 @@
         <v>3.961136023916292</v>
       </c>
       <c r="BN338">
-        <v>14.64088397790055</v>
+        <v>0</v>
       </c>
       <c r="BO338">
-        <v>42.74193548387096</v>
+        <v>-0.8064516129032258</v>
       </c>
     </row>
     <row r="339" spans="1:67">
@@ -71933,10 +71933,10 @@
         <v>14.94768310911808</v>
       </c>
       <c r="BN339">
-        <v>55.24861878453038</v>
+        <v>12.70718232044199</v>
       </c>
       <c r="BO339">
-        <v>161.2903225806452</v>
+        <v>7.258064516129033</v>
       </c>
     </row>
     <row r="340" spans="1:67">
@@ -72133,10 +72133,10 @@
         <v>7.548579970104632</v>
       </c>
       <c r="BN340">
-        <v>27.90055248618784</v>
+        <v>2.486187845303867</v>
       </c>
       <c r="BO340">
-        <v>81.45161290322579</v>
+        <v>-1.612903225806452</v>
       </c>
     </row>
     <row r="341" spans="1:67">
@@ -72336,10 +72336,10 @@
         <v>5.979073243647234</v>
       </c>
       <c r="BN341">
-        <v>22.09944751381216</v>
+        <v>0</v>
       </c>
       <c r="BO341">
-        <v>64.51612903225806</v>
+        <v>-2.419354838709677</v>
       </c>
     </row>
     <row r="342" spans="1:67">
@@ -72539,10 +72539,10 @@
         <v>10.31390134529148</v>
       </c>
       <c r="BN342">
-        <v>38.12154696132596</v>
+        <v>8.011049723756905</v>
       </c>
       <c r="BO342">
-        <v>111.2903225806452</v>
+        <v>8.064516129032258</v>
       </c>
     </row>
     <row r="343" spans="1:67">
@@ -72742,10 +72742,10 @@
         <v>7.698056801195814</v>
       </c>
       <c r="BN343">
-        <v>28.45303867403315</v>
+        <v>0</v>
       </c>
       <c r="BO343">
-        <v>83.06451612903226</v>
+        <v>-0.8064516129032258</v>
       </c>
     </row>
     <row r="344" spans="1:67">
@@ -72945,10 +72945,10 @@
         <v>13.00448430493273</v>
       </c>
       <c r="BN344">
-        <v>48.06629834254143</v>
+        <v>15.4696132596685</v>
       </c>
       <c r="BO344">
-        <v>140.3225806451613</v>
+        <v>14.51612903225807</v>
       </c>
     </row>
     <row r="345" spans="1:67">
@@ -73148,10 +73148,10 @@
         <v>7.997010463378175</v>
       </c>
       <c r="BN345">
-        <v>29.55801104972375</v>
+        <v>2.486187845303867</v>
       </c>
       <c r="BO345">
-        <v>86.29032258064515</v>
+        <v>-3.225806451612903</v>
       </c>
     </row>
     <row r="346" spans="1:67">
@@ -73351,10 +73351,10 @@
         <v>12.18236173393124</v>
       </c>
       <c r="BN346">
-        <v>45.02762430939226</v>
+        <v>0.5524861878453038</v>
       </c>
       <c r="BO346">
-        <v>131.4516129032258</v>
+        <v>-0.8064516129032258</v>
       </c>
     </row>
     <row r="347" spans="1:67">
@@ -73554,10 +73554,10 @@
         <v>10.08968609865471</v>
       </c>
       <c r="BN347">
-        <v>37.29281767955801</v>
+        <v>11.87845303867403</v>
       </c>
       <c r="BO347">
-        <v>108.8709677419355</v>
+        <v>12.90322580645161</v>
       </c>
     </row>
     <row r="348" spans="1:67">
@@ -73754,10 +73754,10 @@
         <v>15.17189835575486</v>
       </c>
       <c r="BN348">
-        <v>56.07734806629834</v>
+        <v>27.90055248618784</v>
       </c>
       <c r="BO348">
-        <v>163.7096774193548</v>
+        <v>27.41935483870968</v>
       </c>
     </row>
     <row r="349" spans="1:67">
@@ -73957,10 +73957,10 @@
         <v>9.342301943198803</v>
       </c>
       <c r="BN349">
-        <v>34.53038674033149</v>
+        <v>0.5524861878453038</v>
       </c>
       <c r="BO349">
-        <v>100.8064516129032</v>
+        <v>-2.419354838709677</v>
       </c>
     </row>
     <row r="350" spans="1:67">
@@ -74160,10 +74160,10 @@
         <v>14.27503736920777</v>
       </c>
       <c r="BN350">
-        <v>52.76243093922653</v>
+        <v>12.98342541436464</v>
       </c>
       <c r="BO350">
-        <v>154.0322580645161</v>
+        <v>8.064516129032258</v>
       </c>
     </row>
     <row r="351" spans="1:67">
@@ -74360,10 +74360,10 @@
         <v>2.840059790732436</v>
       </c>
       <c r="BN351">
-        <v>10.49723756906077</v>
+        <v>0</v>
       </c>
       <c r="BO351">
-        <v>30.64516129032258</v>
+        <v>0</v>
       </c>
     </row>
     <row r="352" spans="1:67">
@@ -74563,10 +74563,10 @@
         <v>11.43497757847534</v>
       </c>
       <c r="BN352">
-        <v>42.26519337016575</v>
+        <v>1.38121546961326</v>
       </c>
       <c r="BO352">
-        <v>123.3870967741936</v>
+        <v>0</v>
       </c>
     </row>
     <row r="353" spans="1:67">
@@ -74766,10 +74766,10 @@
         <v>12.70553064275037</v>
       </c>
       <c r="BN353">
-        <v>46.96132596685082</v>
+        <v>14.91712707182321</v>
       </c>
       <c r="BO353">
-        <v>137.0967741935484</v>
+        <v>12.90322580645161</v>
       </c>
     </row>
     <row r="354" spans="1:67">
@@ -74966,10 +74966,10 @@
         <v>5.605381165919282</v>
       </c>
       <c r="BN354">
-        <v>20.71823204419889</v>
+        <v>1.657458563535912</v>
       </c>
       <c r="BO354">
-        <v>60.48387096774194</v>
+        <v>-4.032258064516129</v>
       </c>
     </row>
     <row r="355" spans="1:67">
@@ -75169,10 +75169,10 @@
         <v>12.55605381165919</v>
       </c>
       <c r="BN355">
-        <v>46.40883977900553</v>
+        <v>15.74585635359116</v>
       </c>
       <c r="BO355">
-        <v>135.483870967742</v>
+        <v>16.12903225806452</v>
       </c>
     </row>
     <row r="356" spans="1:67">
@@ -75372,10 +75372,10 @@
         <v>12.25710014947683</v>
       </c>
       <c r="BN356">
-        <v>45.3038674033149</v>
+        <v>12.15469613259669</v>
       </c>
       <c r="BO356">
-        <v>132.258064516129</v>
+        <v>2.419354838709677</v>
       </c>
     </row>
     <row r="357" spans="1:67">
@@ -75572,10 +75572,10 @@
         <v>4.110612855007473</v>
       </c>
       <c r="BN357">
-        <v>15.19337016574586</v>
+        <v>0</v>
       </c>
       <c r="BO357">
-        <v>44.35483870967742</v>
+        <v>-0.8064516129032258</v>
       </c>
     </row>
     <row r="358" spans="1:67">
@@ -75775,10 +75775,10 @@
         <v>7.324364723467862</v>
       </c>
       <c r="BN358">
-        <v>27.07182320441989</v>
+        <v>6.353591160220994</v>
       </c>
       <c r="BO358">
-        <v>79.03225806451614</v>
+        <v>4.032258064516129</v>
       </c>
     </row>
     <row r="359" spans="1:67">
@@ -75972,10 +75972,10 @@
         <v>7.17488789237668</v>
       </c>
       <c r="BN359">
-        <v>26.51933701657459</v>
+        <v>0</v>
       </c>
       <c r="BO359">
-        <v>77.41935483870968</v>
+        <v>0</v>
       </c>
     </row>
     <row r="360" spans="1:67">
@@ -76172,10 +76172,10 @@
         <v>5.23168908819133</v>
       </c>
       <c r="BN360">
-        <v>19.33701657458563</v>
+        <v>-0.2762430939226519</v>
       </c>
       <c r="BO360">
-        <v>56.4516129032258</v>
+        <v>-0.8064516129032258</v>
       </c>
     </row>
     <row r="361" spans="1:67">
@@ -76375,10 +76375,10 @@
         <v>8.594917787742899</v>
       </c>
       <c r="BN361">
-        <v>31.76795580110497</v>
+        <v>-0.5524861878453038</v>
       </c>
       <c r="BO361">
-        <v>92.74193548387096</v>
+        <v>-3.225806451612903</v>
       </c>
     </row>
     <row r="362" spans="1:67">
@@ -76578,10 +76578,10 @@
         <v>3.139013452914798</v>
       </c>
       <c r="BN362">
-        <v>11.60220994475138</v>
+        <v>-0.2762430939226519</v>
       </c>
       <c r="BO362">
-        <v>33.87096774193549</v>
+        <v>-2.419354838709677</v>
       </c>
     </row>
     <row r="363" spans="1:67">
@@ -76778,10 +76778,10 @@
         <v>10.83707025411061</v>
       </c>
       <c r="BN363">
-        <v>40.05524861878452</v>
+        <v>1.104972375690608</v>
       </c>
       <c r="BO363">
-        <v>116.9354838709677</v>
+        <v>-0.8064516129032258</v>
       </c>
     </row>
     <row r="364" spans="1:67">
@@ -76978,10 +76978,10 @@
         <v>11.58445440956652</v>
       </c>
       <c r="BN364">
-        <v>42.81767955801104</v>
+        <v>1.38121546961326</v>
       </c>
       <c r="BO364">
-        <v>125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="365" spans="1:67">
@@ -77181,10 +77181,10 @@
         <v>8.819133034379671</v>
       </c>
       <c r="BN365">
-        <v>32.59668508287293</v>
+        <v>3.314917127071823</v>
       </c>
       <c r="BO365">
-        <v>95.16129032258065</v>
+        <v>1.612903225806452</v>
       </c>
     </row>
     <row r="366" spans="1:67">
@@ -77384,10 +77384,10 @@
         <v>9.865470852017935</v>
       </c>
       <c r="BN366">
-        <v>36.46408839779005</v>
+        <v>1.933701657458563</v>
       </c>
       <c r="BO366">
-        <v>106.4516129032258</v>
+        <v>0.8064516129032258</v>
       </c>
     </row>
     <row r="367" spans="1:67">
@@ -77560,10 +77560,7 @@
         <v>8.66965620328849</v>
       </c>
       <c r="BN367">
-        <v>32.04419889502762</v>
-      </c>
-      <c r="BO367">
-        <v>93.54838709677419</v>
+        <v>-56.9060773480663</v>
       </c>
     </row>
     <row r="368" spans="1:67">
@@ -77760,10 +77757,10 @@
         <v>8.445440956651719</v>
       </c>
       <c r="BN368">
-        <v>31.21546961325967</v>
+        <v>5.248618784530386</v>
       </c>
       <c r="BO368">
-        <v>91.12903225806453</v>
+        <v>0</v>
       </c>
     </row>
     <row r="369" spans="1:67">
@@ -77960,10 +77957,10 @@
         <v>13.37817638266069</v>
       </c>
       <c r="BN369">
-        <v>49.44751381215469</v>
+        <v>0.2762430939226519</v>
       </c>
       <c r="BO369">
-        <v>144.3548387096774</v>
+        <v>0</v>
       </c>
     </row>
     <row r="370" spans="1:67">
@@ -78163,10 +78160,10 @@
         <v>9.865470852017935</v>
       </c>
       <c r="BN370">
-        <v>36.46408839779005</v>
+        <v>5.524861878453039</v>
       </c>
       <c r="BO370">
-        <v>106.4516129032258</v>
+        <v>5.64516129032258</v>
       </c>
     </row>
     <row r="371" spans="1:67">
@@ -78366,10 +78363,10 @@
         <v>9.790732436472346</v>
       </c>
       <c r="BN371">
-        <v>36.1878453038674</v>
+        <v>1.38121546961326</v>
       </c>
       <c r="BO371">
-        <v>105.6451612903226</v>
+        <v>0</v>
       </c>
     </row>
     <row r="372" spans="1:67">
@@ -78569,10 +78566,10 @@
         <v>11.95814648729447</v>
       </c>
       <c r="BN372">
-        <v>44.19889502762431</v>
+        <v>16.85082872928177</v>
       </c>
       <c r="BO372">
-        <v>129.0322580645161</v>
+        <v>10.48387096774194</v>
       </c>
     </row>
     <row r="373" spans="1:67">
@@ -78769,10 +78766,10 @@
         <v>10.46337817638266</v>
       </c>
       <c r="BN373">
-        <v>38.67403314917127</v>
+        <v>0.5524861878453038</v>
       </c>
       <c r="BO373">
-        <v>112.9032258064516</v>
+        <v>-0.8064516129032258</v>
       </c>
     </row>
     <row r="374" spans="1:67">
@@ -78972,10 +78969,10 @@
         <v>10.38863976083707</v>
       </c>
       <c r="BN374">
-        <v>38.39779005524861</v>
+        <v>17.67955801104972</v>
       </c>
       <c r="BO374">
-        <v>112.0967741935484</v>
+        <v>14.51612903225807</v>
       </c>
     </row>
     <row r="375" spans="1:67">
@@ -79175,10 +79172,10 @@
         <v>10.98654708520179</v>
       </c>
       <c r="BN375">
-        <v>40.60773480662983</v>
+        <v>15.19337016574586</v>
       </c>
       <c r="BO375">
-        <v>118.5483870967742</v>
+        <v>9.67741935483871</v>
       </c>
     </row>
     <row r="376" spans="1:67">
@@ -79378,10 +79375,10 @@
         <v>6.576980568011958</v>
       </c>
       <c r="BN376">
-        <v>24.30939226519337</v>
+        <v>-1.38121546961326</v>
       </c>
       <c r="BO376">
-        <v>70.96774193548387</v>
+        <v>-5.64516129032258</v>
       </c>
     </row>
     <row r="377" spans="1:67">
@@ -79578,10 +79575,10 @@
         <v>0.5979073243647235</v>
       </c>
       <c r="BN377">
-        <v>2.209944751381215</v>
+        <v>-0.2762430939226519</v>
       </c>
       <c r="BO377">
-        <v>6.451612903225806</v>
+        <v>-2.419354838709677</v>
       </c>
     </row>
     <row r="378" spans="1:67">
@@ -79781,10 +79778,10 @@
         <v>10.23916292974589</v>
       </c>
       <c r="BN378">
-        <v>37.84530386740331</v>
+        <v>7.734806629834252</v>
       </c>
       <c r="BO378">
-        <v>110.4838709677419</v>
+        <v>10.48387096774194</v>
       </c>
     </row>
     <row r="379" spans="1:67">
@@ -79984,10 +79981,10 @@
         <v>14.20029895366218</v>
       </c>
       <c r="BN379">
-        <v>52.48618784530387</v>
+        <v>16.02209944751381</v>
       </c>
       <c r="BO379">
-        <v>153.2258064516129</v>
+        <v>15.32258064516129</v>
       </c>
     </row>
     <row r="380" spans="1:67">
@@ -80187,10 +80184,10 @@
         <v>4.484304932735426</v>
       </c>
       <c r="BN380">
-        <v>16.57458563535911</v>
+        <v>-0.2762430939226519</v>
       </c>
       <c r="BO380">
-        <v>48.38709677419354</v>
+        <v>-7.258064516129033</v>
       </c>
     </row>
     <row r="381" spans="1:67">
@@ -80390,10 +80387,10 @@
         <v>10.38863976083707</v>
       </c>
       <c r="BN381">
-        <v>38.39779005524861</v>
+        <v>4.696132596685083</v>
       </c>
       <c r="BO381">
-        <v>112.0967741935484</v>
+        <v>-2.419354838709677</v>
       </c>
     </row>
     <row r="382" spans="1:67">
@@ -80593,10 +80590,10 @@
         <v>6.128550074738415</v>
       </c>
       <c r="BN382">
-        <v>22.65193370165745</v>
+        <v>-0.5524861878453038</v>
       </c>
       <c r="BO382">
-        <v>66.12903225806451</v>
+        <v>-6.451612903225806</v>
       </c>
     </row>
     <row r="383" spans="1:67">
@@ -80793,10 +80790,10 @@
         <v>6.427503736920777</v>
       </c>
       <c r="BN383">
-        <v>23.75690607734806</v>
+        <v>0.2762430939226519</v>
       </c>
       <c r="BO383">
-        <v>69.35483870967741</v>
+        <v>0</v>
       </c>
     </row>
     <row r="384" spans="1:67">
@@ -80996,10 +80993,10 @@
         <v>8.295964125560538</v>
       </c>
       <c r="BN384">
-        <v>30.66298342541436</v>
+        <v>1.933701657458563</v>
       </c>
       <c r="BO384">
-        <v>89.51612903225806</v>
+        <v>-0.8064516129032258</v>
       </c>
     </row>
     <row r="385" spans="1:67">
@@ -81199,10 +81196,10 @@
         <v>16.3677130044843</v>
       </c>
       <c r="BN385">
-        <v>60.49723756906077</v>
+        <v>29.55801104972375</v>
       </c>
       <c r="BO385">
-        <v>176.6129032258064</v>
+        <v>27.41935483870968</v>
       </c>
     </row>
     <row r="386" spans="1:67">
@@ -81402,10 +81399,10 @@
         <v>14.42451420029895</v>
       </c>
       <c r="BN386">
-        <v>53.31491712707182</v>
+        <v>27.34806629834254</v>
       </c>
       <c r="BO386">
-        <v>155.6451612903226</v>
+        <v>25.80645161290322</v>
       </c>
     </row>
     <row r="387" spans="1:67">
@@ -81605,10 +81602,10 @@
         <v>10.98654708520179</v>
       </c>
       <c r="BN387">
-        <v>40.60773480662983</v>
+        <v>18.23204419889503</v>
       </c>
       <c r="BO387">
-        <v>118.5483870967742</v>
+        <v>14.51612903225807</v>
       </c>
     </row>
     <row r="388" spans="1:67">
@@ -81808,10 +81805,10 @@
         <v>9.641255605381167</v>
       </c>
       <c r="BN388">
-        <v>35.63535911602209</v>
+        <v>10.49723756906077</v>
       </c>
       <c r="BO388">
-        <v>104.0322580645161</v>
+        <v>3.225806451612903</v>
       </c>
     </row>
     <row r="389" spans="1:67">
@@ -82011,10 +82008,10 @@
         <v>8.520179372197308</v>
       </c>
       <c r="BN389">
-        <v>31.49171270718232</v>
+        <v>1.38121546961326</v>
       </c>
       <c r="BO389">
-        <v>91.93548387096774</v>
+        <v>-3.225806451612903</v>
       </c>
     </row>
     <row r="390" spans="1:67">
@@ -82214,10 +82211,10 @@
         <v>11.65919282511211</v>
       </c>
       <c r="BN390">
-        <v>43.0939226519337</v>
+        <v>13.53591160220994</v>
       </c>
       <c r="BO390">
-        <v>125.8064516129032</v>
+        <v>7.258064516129033</v>
       </c>
     </row>
     <row r="391" spans="1:67">
@@ -82417,10 +82414,10 @@
         <v>6.502242152466367</v>
       </c>
       <c r="BN391">
-        <v>24.03314917127071</v>
+        <v>0</v>
       </c>
       <c r="BO391">
-        <v>70.16129032258064</v>
+        <v>-0.8064516129032258</v>
       </c>
     </row>
     <row r="392" spans="1:67">
@@ -82620,10 +82617,10 @@
         <v>12.78026905829596</v>
       </c>
       <c r="BN392">
-        <v>47.23756906077348</v>
+        <v>11.32596685082873</v>
       </c>
       <c r="BO392">
-        <v>137.9032258064516</v>
+        <v>11.29032258064516</v>
       </c>
     </row>
     <row r="393" spans="1:67">
@@ -82823,10 +82820,10 @@
         <v>12.85500747384155</v>
       </c>
       <c r="BN393">
-        <v>47.51381215469613</v>
+        <v>10.22099447513812</v>
       </c>
       <c r="BO393">
-        <v>138.7096774193548</v>
+        <v>1.612903225806452</v>
       </c>
     </row>
     <row r="394" spans="1:67">
@@ -83026,10 +83023,10 @@
         <v>12.78026905829596</v>
       </c>
       <c r="BN394">
-        <v>47.23756906077348</v>
+        <v>24.03314917127071</v>
       </c>
       <c r="BO394">
-        <v>137.9032258064516</v>
+        <v>25</v>
       </c>
     </row>
     <row r="395" spans="1:67">
@@ -83229,10 +83226,10 @@
         <v>14.34977578475336</v>
       </c>
       <c r="BN395">
-        <v>53.03867403314917</v>
+        <v>23.75690607734806</v>
       </c>
       <c r="BO395">
-        <v>154.8387096774194</v>
+        <v>31.45161290322581</v>
       </c>
     </row>
     <row r="396" spans="1:67">
@@ -83429,10 +83426,10 @@
         <v>11.7339312406577</v>
       </c>
       <c r="BN396">
-        <v>43.37016574585635</v>
+        <v>4.41988950276243</v>
       </c>
       <c r="BO396">
-        <v>126.6129032258064</v>
+        <v>-0.8064516129032258</v>
       </c>
     </row>
     <row r="397" spans="1:67">
@@ -83632,10 +83629,10 @@
         <v>12.25710014947683</v>
       </c>
       <c r="BN397">
-        <v>45.3038674033149</v>
+        <v>12.15469613259669</v>
       </c>
       <c r="BO397">
-        <v>132.258064516129</v>
+        <v>10.48387096774194</v>
       </c>
     </row>
     <row r="398" spans="1:67">
@@ -83835,10 +83832,10 @@
         <v>11.80866965620329</v>
       </c>
       <c r="BN398">
-        <v>43.64640883977901</v>
+        <v>17.95580110497237</v>
       </c>
       <c r="BO398">
-        <v>127.4193548387097</v>
+        <v>9.67741935483871</v>
       </c>
     </row>
     <row r="399" spans="1:67">
@@ -84038,10 +84035,10 @@
         <v>9.790732436472346</v>
       </c>
       <c r="BN399">
-        <v>36.1878453038674</v>
+        <v>6.077348066298343</v>
       </c>
       <c r="BO399">
-        <v>105.6451612903226</v>
+        <v>-1.612903225806452</v>
       </c>
     </row>
     <row r="400" spans="1:67">
@@ -84241,10 +84238,10 @@
         <v>10.01494768310912</v>
       </c>
       <c r="BN400">
-        <v>37.01657458563536</v>
+        <v>4.696132596685083</v>
       </c>
       <c r="BO400">
-        <v>108.0645161290323</v>
+        <v>7.258064516129033</v>
       </c>
     </row>
     <row r="401" spans="1:67">
@@ -84444,10 +84441,10 @@
         <v>8.520179372197308</v>
       </c>
       <c r="BN401">
-        <v>31.49171270718232</v>
+        <v>2.486187845303867</v>
       </c>
       <c r="BO401">
-        <v>91.93548387096774</v>
+        <v>-4.032258064516129</v>
       </c>
     </row>
     <row r="402" spans="1:67">
@@ -84647,10 +84644,10 @@
         <v>9.715994020926756</v>
       </c>
       <c r="BN402">
-        <v>35.91160220994475</v>
+        <v>3.314917127071823</v>
       </c>
       <c r="BO402">
-        <v>104.8387096774193</v>
+        <v>0.8064516129032258</v>
       </c>
     </row>
     <row r="403" spans="1:67">
@@ -84850,10 +84847,10 @@
         <v>11.50971599402093</v>
       </c>
       <c r="BN403">
-        <v>42.54143646408839</v>
+        <v>8.287292817679557</v>
       </c>
       <c r="BO403">
-        <v>124.1935483870968</v>
+        <v>2.419354838709677</v>
       </c>
     </row>
     <row r="404" spans="1:67">
@@ -85053,10 +85050,10 @@
         <v>6.278026905829597</v>
       </c>
       <c r="BN404">
-        <v>23.20441988950276</v>
+        <v>-0.5524861878453038</v>
       </c>
       <c r="BO404">
-        <v>67.74193548387098</v>
+        <v>0</v>
       </c>
     </row>
     <row r="405" spans="1:67">
@@ -85256,10 +85253,10 @@
         <v>8.744394618834079</v>
       </c>
       <c r="BN405">
-        <v>32.32044198895027</v>
+        <v>7.734806629834252</v>
       </c>
       <c r="BO405">
-        <v>94.35483870967741</v>
+        <v>-4.032258064516129</v>
       </c>
     </row>
     <row r="406" spans="1:67">
@@ -85459,10 +85456,10 @@
         <v>10.61285500747384</v>
       </c>
       <c r="BN406">
-        <v>39.22651933701657</v>
+        <v>14.3646408839779</v>
       </c>
       <c r="BO406">
-        <v>114.516129032258</v>
+        <v>8.870967741935484</v>
       </c>
     </row>
     <row r="407" spans="1:67">
@@ -85662,10 +85659,10 @@
         <v>13.3034379671151</v>
       </c>
       <c r="BN407">
-        <v>49.17127071823204</v>
+        <v>12.15469613259669</v>
       </c>
       <c r="BO407">
-        <v>143.5483870967742</v>
+        <v>13.70967741935484</v>
       </c>
     </row>
     <row r="408" spans="1:67">
@@ -85865,10 +85862,10 @@
         <v>11.95814648729447</v>
       </c>
       <c r="BN408">
-        <v>44.19889502762431</v>
+        <v>17.40331491712707</v>
       </c>
       <c r="BO408">
-        <v>129.0322580645161</v>
+        <v>11.29032258064516</v>
       </c>
     </row>
     <row r="409" spans="1:67">
@@ -86065,10 +86062,10 @@
         <v>11.21076233183856</v>
       </c>
       <c r="BN409">
-        <v>41.43646408839778</v>
+        <v>0</v>
       </c>
       <c r="BO409">
-        <v>120.9677419354839</v>
+        <v>0</v>
       </c>
     </row>
     <row r="410" spans="1:67">
@@ -86268,10 +86265,10 @@
         <v>9.790732436472346</v>
       </c>
       <c r="BN410">
-        <v>36.1878453038674</v>
+        <v>9.668508287292816</v>
       </c>
       <c r="BO410">
-        <v>105.6451612903226</v>
+        <v>-3.225806451612903</v>
       </c>
     </row>
     <row r="411" spans="1:67">
@@ -86468,10 +86465,10 @@
         <v>10.38863976083707</v>
       </c>
       <c r="BN411">
-        <v>38.39779005524861</v>
+        <v>7.458563535911603</v>
       </c>
       <c r="BO411">
-        <v>112.0967741935484</v>
+        <v>-0.8064516129032258</v>
       </c>
     </row>
     <row r="412" spans="1:67">
@@ -86671,10 +86668,10 @@
         <v>12.78026905829596</v>
       </c>
       <c r="BN412">
-        <v>47.23756906077348</v>
+        <v>18.50828729281768</v>
       </c>
       <c r="BO412">
-        <v>137.9032258064516</v>
+        <v>34.6774193548387</v>
       </c>
     </row>
     <row r="413" spans="1:67">
@@ -86871,10 +86868,10 @@
         <v>10.83707025411061</v>
       </c>
       <c r="BN413">
-        <v>40.05524861878452</v>
+        <v>14.64088397790055</v>
       </c>
       <c r="BO413">
-        <v>116.9354838709677</v>
+        <v>8.870967741935484</v>
       </c>
     </row>
     <row r="414" spans="1:67">
@@ -87074,10 +87071,10 @@
         <v>13.90134529147982</v>
       </c>
       <c r="BN414">
-        <v>51.38121546961326</v>
+        <v>32.04419889502762</v>
       </c>
       <c r="BO414">
-        <v>150</v>
+        <v>47.58064516129033</v>
       </c>
     </row>
     <row r="415" spans="1:67">
@@ -87277,10 +87274,10 @@
         <v>9.940209267563526</v>
       </c>
       <c r="BN415">
-        <v>36.74033149171271</v>
+        <v>1.657458563535912</v>
       </c>
       <c r="BO415">
-        <v>107.258064516129</v>
+        <v>-0.8064516129032258</v>
       </c>
     </row>
     <row r="416" spans="1:67">
@@ -87480,10 +87477,10 @@
         <v>10.23916292974589</v>
       </c>
       <c r="BN416">
-        <v>37.84530386740331</v>
+        <v>1.933701657458563</v>
       </c>
       <c r="BO416">
-        <v>110.4838709677419</v>
+        <v>-2.419354838709677</v>
       </c>
     </row>
     <row r="417" spans="1:67">
@@ -87683,10 +87680,10 @@
         <v>14.42451420029895</v>
       </c>
       <c r="BN417">
-        <v>53.31491712707182</v>
+        <v>26.79558011049724</v>
       </c>
       <c r="BO417">
-        <v>155.6451612903226</v>
+        <v>27.41935483870968</v>
       </c>
     </row>
     <row r="418" spans="1:67">
@@ -87886,10 +87883,10 @@
         <v>10.83707025411061</v>
       </c>
       <c r="BN418">
-        <v>40.05524861878452</v>
+        <v>5.248618784530386</v>
       </c>
       <c r="BO418">
-        <v>116.9354838709677</v>
+        <v>6.451612903225806</v>
       </c>
     </row>
     <row r="419" spans="1:67">
@@ -88089,10 +88086,10 @@
         <v>8.66965620328849</v>
       </c>
       <c r="BN419">
-        <v>32.04419889502762</v>
+        <v>4.143646408839778</v>
       </c>
       <c r="BO419">
-        <v>93.54838709677419</v>
+        <v>1.612903225806452</v>
       </c>
     </row>
     <row r="420" spans="1:67">
@@ -88289,10 +88286,10 @@
         <v>9.940209267563526</v>
       </c>
       <c r="BN420">
-        <v>36.74033149171271</v>
+        <v>9.668508287292816</v>
       </c>
       <c r="BO420">
-        <v>107.258064516129</v>
+        <v>4.032258064516129</v>
       </c>
     </row>
     <row r="421" spans="1:67">
@@ -88492,10 +88489,10 @@
         <v>18.23617339312406</v>
       </c>
       <c r="BN421">
-        <v>67.40331491712706</v>
+        <v>23.75690607734806</v>
       </c>
       <c r="BO421">
-        <v>196.7741935483871</v>
+        <v>34.6774193548387</v>
       </c>
     </row>
     <row r="422" spans="1:67">
@@ -88695,10 +88692,10 @@
         <v>13.75186846038864</v>
       </c>
       <c r="BN422">
-        <v>50.82872928176795</v>
+        <v>16.57458563535911</v>
       </c>
       <c r="BO422">
-        <v>148.3870967741935</v>
+        <v>19.35483870967742</v>
       </c>
     </row>
     <row r="423" spans="1:67">
@@ -88898,10 +88895,10 @@
         <v>8.445440956651719</v>
       </c>
       <c r="BN423">
-        <v>31.21546961325967</v>
+        <v>7.18232044198895</v>
       </c>
       <c r="BO423">
-        <v>91.12903225806453</v>
+        <v>1.612903225806452</v>
       </c>
     </row>
     <row r="424" spans="1:67">
@@ -89098,10 +89095,10 @@
         <v>11.13602391629297</v>
       </c>
       <c r="BN424">
-        <v>41.16022099447514</v>
+        <v>9.116022099447513</v>
       </c>
       <c r="BO424">
-        <v>120.1612903225807</v>
+        <v>0</v>
       </c>
     </row>
     <row r="425" spans="1:67">
@@ -89301,10 +89298,10 @@
         <v>8.221225710014947</v>
       </c>
       <c r="BN425">
-        <v>30.38674033149171</v>
+        <v>-0.5524861878453038</v>
       </c>
       <c r="BO425">
-        <v>88.70967741935483</v>
+        <v>-1.612903225806452</v>
       </c>
     </row>
     <row r="426" spans="1:67">
@@ -89504,10 +89501,10 @@
         <v>11.65919282511211</v>
       </c>
       <c r="BN426">
-        <v>43.0939226519337</v>
+        <v>17.95580110497237</v>
       </c>
       <c r="BO426">
-        <v>125.8064516129032</v>
+        <v>13.70967741935484</v>
       </c>
     </row>
     <row r="427" spans="1:67">
@@ -89707,10 +89704,10 @@
         <v>11.36023916292974</v>
       </c>
       <c r="BN427">
-        <v>41.98895027624309</v>
+        <v>13.81215469613259</v>
       </c>
       <c r="BO427">
-        <v>122.5806451612903</v>
+        <v>6.451612903225806</v>
       </c>
     </row>
     <row r="428" spans="1:67">
@@ -89910,10 +89907,10 @@
         <v>10.31390134529148</v>
       </c>
       <c r="BN428">
-        <v>38.12154696132596</v>
+        <v>14.3646408839779</v>
       </c>
       <c r="BO428">
-        <v>111.2903225806452</v>
+        <v>13.70967741935484</v>
       </c>
     </row>
     <row r="429" spans="1:67">
@@ -90113,10 +90110,10 @@
         <v>6.576980568011958</v>
       </c>
       <c r="BN429">
-        <v>24.30939226519337</v>
+        <v>6.077348066298343</v>
       </c>
       <c r="BO429">
-        <v>70.96774193548387</v>
+        <v>-1.612903225806452</v>
       </c>
     </row>
     <row r="430" spans="1:67">
@@ -90316,10 +90313,10 @@
         <v>11.28550074738415</v>
       </c>
       <c r="BN430">
-        <v>41.71270718232044</v>
+        <v>2.486187845303867</v>
       </c>
       <c r="BO430">
-        <v>121.7741935483871</v>
+        <v>6.451612903225806</v>
       </c>
     </row>
     <row r="431" spans="1:67">
@@ -90516,10 +90513,10 @@
         <v>11.7339312406577</v>
       </c>
       <c r="BN431">
-        <v>43.37016574585635</v>
+        <v>13.81215469613259</v>
       </c>
       <c r="BO431">
-        <v>126.6129032258064</v>
+        <v>11.29032258064516</v>
       </c>
     </row>
     <row r="432" spans="1:67">
@@ -90719,10 +90716,10 @@
         <v>10.98654708520179</v>
       </c>
       <c r="BN432">
-        <v>40.60773480662983</v>
+        <v>8.011049723756905</v>
       </c>
       <c r="BO432">
-        <v>118.5483870967742</v>
+        <v>3.225806451612903</v>
       </c>
     </row>
     <row r="433" spans="1:67">
@@ -90922,10 +90919,10 @@
         <v>7.847533632286995</v>
       </c>
       <c r="BN433">
-        <v>29.00552486187845</v>
+        <v>1.104972375690608</v>
       </c>
       <c r="BO433">
-        <v>84.67741935483872</v>
+        <v>-4.838709677419355</v>
       </c>
     </row>
     <row r="434" spans="1:67">
@@ -91125,10 +91122,10 @@
         <v>10.68759342301943</v>
       </c>
       <c r="BN434">
-        <v>39.50276243093923</v>
+        <v>3.314917127071823</v>
       </c>
       <c r="BO434">
-        <v>115.3225806451613</v>
+        <v>0</v>
       </c>
     </row>
     <row r="435" spans="1:67">
@@ -91328,10 +91325,10 @@
         <v>9.790732436472346</v>
       </c>
       <c r="BN435">
-        <v>36.1878453038674</v>
+        <v>4.696132596685083</v>
       </c>
       <c r="BO435">
-        <v>105.6451612903226</v>
+        <v>0.8064516129032258</v>
       </c>
     </row>
     <row r="436" spans="1:67">
@@ -91531,10 +91528,10 @@
         <v>14.94768310911808</v>
       </c>
       <c r="BN436">
-        <v>55.24861878453038</v>
+        <v>14.08839779005525</v>
       </c>
       <c r="BO436">
-        <v>161.2903225806452</v>
+        <v>2.419354838709677</v>
       </c>
     </row>
     <row r="437" spans="1:67">
@@ -91734,10 +91731,10 @@
         <v>12.03288490284006</v>
       </c>
       <c r="BN437">
-        <v>44.47513812154696</v>
+        <v>4.696132596685083</v>
       </c>
       <c r="BO437">
-        <v>129.8387096774194</v>
+        <v>-5.64516129032258</v>
       </c>
     </row>
     <row r="438" spans="1:67">
@@ -91937,10 +91934,10 @@
         <v>7.399103139013452</v>
       </c>
       <c r="BN438">
-        <v>27.34806629834254</v>
+        <v>1.38121546961326</v>
       </c>
       <c r="BO438">
-        <v>79.83870967741935</v>
+        <v>0</v>
       </c>
     </row>
     <row r="439" spans="1:67">
@@ -92140,10 +92137,10 @@
         <v>11.80866965620329</v>
       </c>
       <c r="BN439">
-        <v>43.64640883977901</v>
+        <v>7.458563535911603</v>
       </c>
       <c r="BO439">
-        <v>127.4193548387097</v>
+        <v>16.12903225806452</v>
       </c>
     </row>
     <row r="440" spans="1:67">
@@ -92343,10 +92340,10 @@
         <v>11.06128550074738</v>
       </c>
       <c r="BN440">
-        <v>40.88397790055249</v>
+        <v>3.867403314917126</v>
       </c>
       <c r="BO440">
-        <v>119.3548387096774</v>
+        <v>-4.838709677419355</v>
       </c>
     </row>
     <row r="441" spans="1:67">
@@ -92546,10 +92543,10 @@
         <v>12.03288490284006</v>
       </c>
       <c r="BN441">
-        <v>44.47513812154696</v>
+        <v>4.143646408839778</v>
       </c>
       <c r="BO441">
-        <v>129.8387096774194</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
